--- a/data/Referrals_App_Outbound.xlsx
+++ b/data/Referrals_App_Outbound.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Project ID</t>
   </si>
@@ -199,210 +199,204 @@
     <t>Silver Spring</t>
   </si>
   <si>
-    <t>Thomas Dennis</t>
-  </si>
-  <si>
-    <t>128 Lubrano Drive</t>
+    <t>Thomas R. Dennis</t>
+  </si>
+  <si>
+    <t>4201 North View Drive</t>
+  </si>
+  <si>
+    <t>Bowie</t>
+  </si>
+  <si>
+    <t>(410) 544-4263 Main</t>
+  </si>
+  <si>
+    <t>RxWellness Spine &amp; Health - Laurel, MD</t>
+  </si>
+  <si>
+    <t>525 Main St</t>
+  </si>
+  <si>
+    <t>(301) 725-6884 Work</t>
+  </si>
+  <si>
+    <t>Maryland Healthcare Clinics - Easton, MD</t>
+  </si>
+  <si>
+    <t>7696 Ocean Gateway</t>
+  </si>
+  <si>
+    <t>Easton</t>
+  </si>
+  <si>
+    <t>Maryland Healthcare Clinics - Columbia, MD</t>
+  </si>
+  <si>
+    <t>5570 Sterrett Place</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Rebound Integrative Health &amp; Sports Clinic - Greenbelt, MD</t>
+  </si>
+  <si>
+    <t>7701 Greenbelt Rd</t>
+  </si>
+  <si>
+    <t>(301) 798-9188 Work</t>
+  </si>
+  <si>
+    <t>Total Health Family Clinic - District Heights, MD</t>
+  </si>
+  <si>
+    <t>5730-A Silver Hill Road</t>
+  </si>
+  <si>
+    <t>District Heights</t>
+  </si>
+  <si>
+    <t>(301) 735-5775 Main</t>
+  </si>
+  <si>
+    <t>Excelsia Injury Care - White Marsh, MD</t>
+  </si>
+  <si>
+    <t>8140 Corporate Drive</t>
+  </si>
+  <si>
+    <t>(410) 687-4405 Work</t>
+  </si>
+  <si>
+    <t>AmeriWell Chiropractic - Capitol Heights, MD</t>
+  </si>
+  <si>
+    <t>525 Eastern Ave NE</t>
+  </si>
+  <si>
+    <t>Capitol Heights</t>
+  </si>
+  <si>
+    <t>301-883-8300 Work</t>
+  </si>
+  <si>
+    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Fort Washington, MD</t>
+  </si>
+  <si>
+    <t>9300 Livingston Rd</t>
+  </si>
+  <si>
+    <t>Fort Washington</t>
+  </si>
+  <si>
+    <t>(301) 203-6734 Work</t>
+  </si>
+  <si>
+    <t>Dunkirk Family Practice - Dunkirk, MD</t>
+  </si>
+  <si>
+    <t>10845 Town Center Boulevard</t>
+  </si>
+  <si>
+    <t>(410) 286-3865 Work</t>
+  </si>
+  <si>
+    <t>Mid-Atlantic Spinal Rehab &amp; Chiropractic - Bowie, MD</t>
+  </si>
+  <si>
+    <t>4201 Northview Dr</t>
+  </si>
+  <si>
+    <t>--76.5376915</t>
+  </si>
+  <si>
+    <t>(301) 882-5500 Main</t>
+  </si>
+  <si>
+    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Fairfax, VA</t>
+  </si>
+  <si>
+    <t>3925 Chain Bridge Rd</t>
+  </si>
+  <si>
+    <t>Fairfax</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>(703) 890-2222 Work</t>
+  </si>
+  <si>
+    <t>AmeriWell Chiropractic - Silver Spring, MD</t>
+  </si>
+  <si>
+    <t>804 Pershing Dr</t>
+  </si>
+  <si>
+    <t>(301) 587-4000 Work</t>
+  </si>
+  <si>
+    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Landover, MD</t>
+  </si>
+  <si>
+    <t>4301 Garden City Dr</t>
+  </si>
+  <si>
+    <t>Landover</t>
+  </si>
+  <si>
+    <t>(301) 577-1115</t>
+  </si>
+  <si>
+    <t>Maryland Healthcare Clinics - Baltimore, MD</t>
+  </si>
+  <si>
+    <t>6615 Reisterstown Road</t>
+  </si>
+  <si>
+    <t>Atlast Healthcare Of Maryland</t>
+  </si>
+  <si>
+    <t>3431 Monarch Drive</t>
+  </si>
+  <si>
+    <t>Edgewater</t>
+  </si>
+  <si>
+    <t>(301) 970-2270 Main</t>
+  </si>
+  <si>
+    <t>Multi-Specialty Health Care - Hyattsville, MD</t>
+  </si>
+  <si>
+    <t>7503 Annapolis Road</t>
+  </si>
+  <si>
+    <t>Hyattsville</t>
+  </si>
+  <si>
+    <t>888-807-2778 Main</t>
+  </si>
+  <si>
+    <t>Kiro-Plus Health &amp; Wellness, LLC</t>
+  </si>
+  <si>
+    <t>226 East Lafayette Avenue</t>
+  </si>
+  <si>
+    <t>(410) 727-7474</t>
+  </si>
+  <si>
+    <t>John F. Koloski</t>
+  </si>
+  <si>
+    <t>2024 West St</t>
   </si>
   <si>
     <t>Annapolis</t>
   </si>
   <si>
-    <t>410-544-4263 Main</t>
-  </si>
-  <si>
-    <t>RxWellness Spine &amp; Health - Laurel, MD</t>
-  </si>
-  <si>
-    <t>525 Main St</t>
-  </si>
-  <si>
-    <t>(301) 725-6884 Work</t>
-  </si>
-  <si>
-    <t>Maryland Healthcare Clinics - Easton, MD</t>
-  </si>
-  <si>
-    <t>7696 Ocean Gateway</t>
-  </si>
-  <si>
-    <t>Easton</t>
-  </si>
-  <si>
-    <t>Maryland Healthcare Clinics - Columbia, MD</t>
-  </si>
-  <si>
-    <t>5570 Sterrett Place</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>Rebound Integrative Health &amp; Sports Clinic - Greenbelt, MD</t>
-  </si>
-  <si>
-    <t>7701 Greenbelt Rd</t>
-  </si>
-  <si>
-    <t>20770-6521</t>
-  </si>
-  <si>
-    <t>(240) 261-7229 Fax</t>
-  </si>
-  <si>
-    <t>Total Health Family Clinic - District Heights, MD</t>
-  </si>
-  <si>
-    <t>5730-A Silver Hill Road</t>
-  </si>
-  <si>
-    <t>District Heights</t>
-  </si>
-  <si>
-    <t>(301) 735-5775 Main</t>
-  </si>
-  <si>
-    <t>Excelsia Injury Care - White Marsh, MD</t>
-  </si>
-  <si>
-    <t>8140 Corporate Drive</t>
-  </si>
-  <si>
-    <t>(410) 687-4405 Work</t>
-  </si>
-  <si>
-    <t>AmeriWell Chiropractic - Capitol Heights, MD</t>
-  </si>
-  <si>
-    <t>525 Eastern Ave NE</t>
-  </si>
-  <si>
-    <t>Capitol Heights</t>
-  </si>
-  <si>
-    <t>301-883-8300 Work</t>
-  </si>
-  <si>
-    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Fort Washington, MD</t>
-  </si>
-  <si>
-    <t>9300 Livingston Rd</t>
-  </si>
-  <si>
-    <t>Fort Washington</t>
-  </si>
-  <si>
-    <t>(301) 203-6734 Work</t>
-  </si>
-  <si>
-    <t>Dunkirk Family Practice - Dunkirk, MD</t>
-  </si>
-  <si>
-    <t>10845 Town Center Boulevard</t>
-  </si>
-  <si>
-    <t>(410) 286-3865 Work</t>
-  </si>
-  <si>
-    <t>Mid-Atlantic Spinal Rehab &amp; Chiropractic - Bowie, MD</t>
-  </si>
-  <si>
-    <t>4201 Northview Dr</t>
-  </si>
-  <si>
-    <t>Bowie</t>
-  </si>
-  <si>
-    <t>(301) 882-5500 Main</t>
-  </si>
-  <si>
-    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Fairfax, VA</t>
-  </si>
-  <si>
-    <t>3925 Chain Bridge Rd</t>
-  </si>
-  <si>
-    <t>Fairfax</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>(703) 890-2222 Work</t>
-  </si>
-  <si>
-    <t>AmeriWell Chiropractic - Silver Spring, MD</t>
-  </si>
-  <si>
-    <t>804 Pershing Dr</t>
-  </si>
-  <si>
-    <t>(301) 587-4000 Work</t>
-  </si>
-  <si>
-    <t>Kaizo Health Chiropractic &amp; Rehabilitation - Landover, MD</t>
-  </si>
-  <si>
-    <t>4301 Garden City Dr</t>
-  </si>
-  <si>
-    <t>Landover</t>
-  </si>
-  <si>
-    <t>(301) 577-1115</t>
-  </si>
-  <si>
-    <t>Maryland Healthcare Clinics - Baltimore, MD</t>
-  </si>
-  <si>
-    <t>6615 Reisterstown Road</t>
-  </si>
-  <si>
-    <t>21215-2633</t>
-  </si>
-  <si>
-    <t>Atlast Healthcare Of Maryland</t>
-  </si>
-  <si>
-    <t>3431 Monarch Drive</t>
-  </si>
-  <si>
-    <t>Edgewater</t>
-  </si>
-  <si>
-    <t>(301) 970-2270 Main</t>
-  </si>
-  <si>
-    <t>Multi-Specialty Health Care - Hyattsville, MD</t>
-  </si>
-  <si>
-    <t>7503 Annapolis Road</t>
-  </si>
-  <si>
-    <t>Hyattsville</t>
-  </si>
-  <si>
-    <t>888-807-2778 Main</t>
-  </si>
-  <si>
-    <t>Kiro-Plus Health &amp; Wellness, LLC</t>
-  </si>
-  <si>
-    <t>226 East Lafayette Avenue</t>
-  </si>
-  <si>
-    <t>(410) 727-7474</t>
-  </si>
-  <si>
-    <t>John F. Koloski</t>
-  </si>
-  <si>
-    <t>2024 West St</t>
-  </si>
-  <si>
-    <t>21401-3029</t>
-  </si>
-  <si>
     <t>(240) 439-9764 Personal Mobile</t>
   </si>
   <si>
@@ -415,6 +409,9 @@
     <t>Suitland</t>
   </si>
   <si>
+    <t>--76.899163</t>
+  </si>
+  <si>
     <t>301-899-5159 Main</t>
   </si>
   <si>
@@ -427,7 +424,7 @@
     <t>(301) 776-2000 Main</t>
   </si>
   <si>
-    <t>Excelsia Injury Care - Box Hill/Bel Air</t>
+    <t>Excelsia Injury Care - Box Hill/Bel Air, MD</t>
   </si>
   <si>
     <t>2953 Emmorton Rd</t>
@@ -436,7 +433,7 @@
     <t>Abingdon</t>
   </si>
   <si>
-    <t>21009-1631</t>
+    <t>--76.3097687</t>
   </si>
   <si>
     <t>410-569-2800</t>
@@ -460,10 +457,7 @@
     <t>Bel Air</t>
   </si>
   <si>
-    <t>21015-6185</t>
-  </si>
-  <si>
-    <t>(443) 512-0025 Personal Mobile</t>
+    <t>(443) 512-0025 Work</t>
   </si>
   <si>
     <t>Ameriwell Chiropractic - Bowie, MD</t>
@@ -490,10 +484,10 @@
     <t>Active Physical Therapy - California, MD</t>
   </si>
   <si>
-    <t>22599 Mac Arthur Blvd</t>
-  </si>
-  <si>
-    <t>301-737-3403 Fax</t>
+    <t>22599 MacArthur Blvd</t>
+  </si>
+  <si>
+    <t>(301) 737-3400 Work</t>
   </si>
   <si>
     <t>Bethesda Spine And Posture</t>
@@ -556,15 +550,12 @@
     <t>(410) 414-3345 Main</t>
   </si>
   <si>
-    <t>Washington Wellness - Massachusetts Ave NW</t>
+    <t>Washington Wellness - Massachusetts Ave NW, DC</t>
   </si>
   <si>
     <t>25 Massachusetts Ave NW</t>
   </si>
   <si>
-    <t>20001-1430</t>
-  </si>
-  <si>
     <t>(202) 808-9496</t>
   </si>
   <si>
@@ -616,7 +607,7 @@
     <t>Fairmount Heights</t>
   </si>
   <si>
-    <t>(301) 925-4367 Fax</t>
+    <t>(301) 925-2013 Work</t>
   </si>
   <si>
     <t>Ballenger Chiropractic, P.A.</t>
@@ -649,7 +640,7 @@
     <t>(901) 229-0480 Work</t>
   </si>
   <si>
-    <t>RxWellness Spine &amp; Health - Rockville</t>
+    <t>RxWellness Spine &amp; Health - Rockville, MD</t>
   </si>
   <si>
     <t>15001 Shady Grove Rd</t>
@@ -658,9 +649,6 @@
     <t>Rockville</t>
   </si>
   <si>
-    <t>20850-6352</t>
-  </si>
-  <si>
     <t>(240) 556-5721 Work</t>
   </si>
   <si>
@@ -679,7 +667,7 @@
     <t>683 Old Mill Rd</t>
   </si>
   <si>
-    <t>410-928-4192 Personal Mobile</t>
+    <t>410-928-4192 Work</t>
   </si>
   <si>
     <t>AmeriWell Chiropractic - Laurel, MD</t>
@@ -703,7 +691,7 @@
     <t>(240) 930-3066 Work</t>
   </si>
   <si>
-    <t>RX Wellness - Alexandria, VA</t>
+    <t>RxWellness Spine &amp; Health - Alexandria, VA</t>
   </si>
   <si>
     <t>3543 W Braddock Rd</t>
@@ -722,9 +710,6 @@
   </si>
   <si>
     <t>Camp Springs</t>
-  </si>
-  <si>
-    <t>(301) 925-2013 Work</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1171,10 @@
         <v>20770</v>
       </c>
       <c r="K2" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L2" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>17</v>
@@ -1227,10 +1212,10 @@
         <v>20745</v>
       </c>
       <c r="K3" s="2">
-        <v>38.818065</v>
+        <v>38.8180959</v>
       </c>
       <c r="L3" s="2">
-        <v>-76.999033</v>
+        <v>-76.9988597</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>21</v>
@@ -1268,10 +1253,10 @@
         <v>20745</v>
       </c>
       <c r="K4" s="2">
-        <v>38.818065</v>
+        <v>38.8180959</v>
       </c>
       <c r="L4" s="2">
-        <v>-76.999033</v>
+        <v>-76.9988597</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>21</v>
@@ -1309,10 +1294,10 @@
         <v>20770</v>
       </c>
       <c r="K5" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L5" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>17</v>
@@ -1350,10 +1335,10 @@
         <v>20602</v>
       </c>
       <c r="K6" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L6" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>25</v>
@@ -1389,10 +1374,10 @@
         <v>20706</v>
       </c>
       <c r="K7" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L7" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>29</v>
@@ -1430,10 +1415,10 @@
         <v>20602</v>
       </c>
       <c r="K8" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L8" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>25</v>
@@ -1471,10 +1456,10 @@
         <v>20602</v>
       </c>
       <c r="K9" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L9" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>25</v>
@@ -1512,10 +1497,10 @@
         <v>20619</v>
       </c>
       <c r="K10" s="2">
-        <v>38.297423</v>
+        <v>38.297807</v>
       </c>
       <c r="L10" s="2">
-        <v>-76.507039</v>
+        <v>-76.5067462</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>33</v>
@@ -1553,10 +1538,10 @@
         <v>20745</v>
       </c>
       <c r="K11" s="2">
-        <v>38.818065</v>
+        <v>38.8180959</v>
       </c>
       <c r="L11" s="2">
-        <v>-76.999033</v>
+        <v>-76.9988597</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>21</v>
@@ -1594,10 +1579,10 @@
         <v>20602</v>
       </c>
       <c r="K12" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L12" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>25</v>
@@ -1635,10 +1620,10 @@
         <v>20602</v>
       </c>
       <c r="K13" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L13" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>25</v>
@@ -1676,10 +1661,10 @@
         <v>20602</v>
       </c>
       <c r="K14" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L14" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>25</v>
@@ -1717,10 +1702,10 @@
         <v>20602</v>
       </c>
       <c r="K15" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L15" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>25</v>
@@ -1758,10 +1743,10 @@
         <v>20770</v>
       </c>
       <c r="K16" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L16" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>17</v>
@@ -1799,10 +1784,10 @@
         <v>20602</v>
       </c>
       <c r="K17" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L17" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>25</v>
@@ -1840,10 +1825,10 @@
         <v>20602</v>
       </c>
       <c r="K18" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L18" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>25</v>
@@ -1881,10 +1866,10 @@
         <v>20770</v>
       </c>
       <c r="K19" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L19" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>17</v>
@@ -1922,10 +1907,10 @@
         <v>20770</v>
       </c>
       <c r="K20" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L20" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>17</v>
@@ -1963,10 +1948,10 @@
         <v>20770</v>
       </c>
       <c r="K21" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L21" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>17</v>
@@ -2004,10 +1989,10 @@
         <v>20602</v>
       </c>
       <c r="K22" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L22" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>25</v>
@@ -2045,10 +2030,10 @@
         <v>20602</v>
       </c>
       <c r="K23" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L23" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>25</v>
@@ -2086,10 +2071,10 @@
         <v>20602</v>
       </c>
       <c r="K24" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L24" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>25</v>
@@ -2127,10 +2112,10 @@
         <v>20770</v>
       </c>
       <c r="K25" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L25" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>17</v>
@@ -2168,10 +2153,10 @@
         <v>20602</v>
       </c>
       <c r="K26" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L26" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>25</v>
@@ -2209,10 +2194,10 @@
         <v>20770</v>
       </c>
       <c r="K27" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L27" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>17</v>
@@ -2248,10 +2233,10 @@
         <v>20706</v>
       </c>
       <c r="K28" s="2">
-        <v>38.96545446</v>
+        <v>38.9661555</v>
       </c>
       <c r="L28" s="2">
-        <v>-76.84507814</v>
+        <v>-76.841284</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>36</v>
@@ -2289,10 +2274,10 @@
         <v>20602</v>
       </c>
       <c r="K29" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L29" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>25</v>
@@ -2330,10 +2315,10 @@
         <v>20602</v>
       </c>
       <c r="K30" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L30" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>25</v>
@@ -2371,10 +2356,10 @@
         <v>20602</v>
       </c>
       <c r="K31" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L31" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>25</v>
@@ -2412,10 +2397,10 @@
         <v>20602</v>
       </c>
       <c r="K32" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L32" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>25</v>
@@ -2453,10 +2438,10 @@
         <v>20754</v>
       </c>
       <c r="K33" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L33" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>40</v>
@@ -2494,10 +2479,10 @@
         <v>20770</v>
       </c>
       <c r="K34" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L34" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>17</v>
@@ -2535,10 +2520,10 @@
         <v>20602</v>
       </c>
       <c r="K35" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L35" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>25</v>
@@ -2576,10 +2561,10 @@
         <v>20602</v>
       </c>
       <c r="K36" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L36" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>25</v>
@@ -2617,10 +2602,10 @@
         <v>20602</v>
       </c>
       <c r="K37" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L37" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>25</v>
@@ -2658,10 +2643,10 @@
         <v>21228</v>
       </c>
       <c r="K38" s="2">
-        <v>39.28238084</v>
+        <v>39.2828288</v>
       </c>
       <c r="L38" s="2">
-        <v>-76.75405692</v>
+        <v>-76.7549537</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>44</v>
@@ -2699,10 +2684,10 @@
         <v>20770</v>
       </c>
       <c r="K39" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L39" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>17</v>
@@ -2740,10 +2725,10 @@
         <v>20707</v>
       </c>
       <c r="K40" s="2">
-        <v>39.08785665</v>
+        <v>39.0888912</v>
       </c>
       <c r="L40" s="2">
-        <v>-76.86115123</v>
+        <v>-76.8600599</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>48</v>
@@ -2781,10 +2766,10 @@
         <v>20770</v>
       </c>
       <c r="K41" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L41" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>17</v>
@@ -2822,10 +2807,10 @@
         <v>20602</v>
       </c>
       <c r="K42" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L42" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>25</v>
@@ -2863,10 +2848,10 @@
         <v>20602</v>
       </c>
       <c r="K43" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L43" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>25</v>
@@ -2904,10 +2889,10 @@
         <v>20002</v>
       </c>
       <c r="K44" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L44" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>53</v>
@@ -2945,10 +2930,10 @@
         <v>20602</v>
       </c>
       <c r="K45" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L45" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>25</v>
@@ -2986,10 +2971,10 @@
         <v>20602</v>
       </c>
       <c r="K46" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L46" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>25</v>
@@ -3027,10 +3012,10 @@
         <v>20602</v>
       </c>
       <c r="K47" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L47" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>25</v>
@@ -3068,10 +3053,10 @@
         <v>20002</v>
       </c>
       <c r="K48" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L48" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>53</v>
@@ -3109,10 +3094,10 @@
         <v>21220</v>
       </c>
       <c r="K49" s="2">
-        <v>39.35227362</v>
+        <v>39.3521884</v>
       </c>
       <c r="L49" s="2">
-        <v>-76.45195941</v>
+        <v>-76.4509291</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>57</v>
@@ -3150,10 +3135,10 @@
         <v>20602</v>
       </c>
       <c r="K50" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L50" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>25</v>
@@ -3191,10 +3176,10 @@
         <v>20602</v>
       </c>
       <c r="K51" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L51" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>25</v>
@@ -3232,10 +3217,10 @@
         <v>20770</v>
       </c>
       <c r="K52" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L52" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>17</v>
@@ -3273,10 +3258,10 @@
         <v>20910</v>
       </c>
       <c r="K53" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L53" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>53</v>
@@ -3296,7 +3281,7 @@
         <v>45342</v>
       </c>
       <c r="E54" s="2">
-        <v>993703512</v>
+        <v>996727367</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>61</v>
@@ -3311,13 +3296,13 @@
         <v>16</v>
       </c>
       <c r="J54" s="2">
-        <v>21401</v>
+        <v>20716</v>
       </c>
       <c r="K54" s="2">
-        <v>38.98591054</v>
+        <v>38.947771</v>
       </c>
       <c r="L54" s="2">
-        <v>-76.55208292</v>
+        <v>-76.7362674</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>64</v>
@@ -3353,10 +3338,10 @@
         <v>20707</v>
       </c>
       <c r="K55" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L55" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>67</v>
@@ -3394,10 +3379,10 @@
         <v>20602</v>
       </c>
       <c r="K56" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L56" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>25</v>
@@ -3433,10 +3418,10 @@
         <v>20602</v>
       </c>
       <c r="K57" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L57" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>25</v>
@@ -3474,10 +3459,10 @@
         <v>20602</v>
       </c>
       <c r="K58" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L58" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>25</v>
@@ -3515,10 +3500,10 @@
         <v>20602</v>
       </c>
       <c r="K59" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L59" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>25</v>
@@ -3556,10 +3541,10 @@
         <v>20770</v>
       </c>
       <c r="K60" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L60" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M60" s="5" t="s">
         <v>17</v>
@@ -3595,10 +3580,10 @@
         <v>20602</v>
       </c>
       <c r="K61" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L61" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M61" s="5" t="s">
         <v>25</v>
@@ -3636,10 +3621,10 @@
         <v>20770</v>
       </c>
       <c r="K62" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L62" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M62" s="5" t="s">
         <v>17</v>
@@ -3677,10 +3662,10 @@
         <v>21601</v>
       </c>
       <c r="K63" s="2">
-        <v>38.760413</v>
+        <v>38.760463</v>
       </c>
       <c r="L63" s="2">
-        <v>-76.061989</v>
+        <v>-76.0624659</v>
       </c>
       <c r="M63" s="5" t="s">
         <v>53</v>
@@ -3718,10 +3703,10 @@
         <v>20602</v>
       </c>
       <c r="K64" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L64" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>25</v>
@@ -3759,10 +3744,10 @@
         <v>20602</v>
       </c>
       <c r="K65" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L65" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>25</v>
@@ -3800,10 +3785,10 @@
         <v>21044</v>
       </c>
       <c r="K66" s="2">
-        <v>39.21912354</v>
+        <v>39.2207943</v>
       </c>
       <c r="L66" s="2">
-        <v>-76.8569095</v>
+        <v>-76.8578133</v>
       </c>
       <c r="M66" s="5" t="s">
         <v>53</v>
@@ -3841,10 +3826,10 @@
         <v>20707</v>
       </c>
       <c r="K67" s="2">
-        <v>39.08785665</v>
+        <v>39.0888912</v>
       </c>
       <c r="L67" s="2">
-        <v>-76.86115123</v>
+        <v>-76.8600599</v>
       </c>
       <c r="M67" s="5" t="s">
         <v>48</v>
@@ -3882,10 +3867,10 @@
         <v>20754</v>
       </c>
       <c r="K68" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L68" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M68" s="5" t="s">
         <v>40</v>
@@ -3917,17 +3902,17 @@
       <c r="I69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K69" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L69" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M69" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K69" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L69" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="70" ht="28.25">
@@ -3947,13 +3932,13 @@
         <v>996605668</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>16</v>
@@ -3962,13 +3947,13 @@
         <v>20747</v>
       </c>
       <c r="K70" s="2">
-        <v>38.85432061</v>
+        <v>38.8542535</v>
       </c>
       <c r="L70" s="2">
-        <v>-76.90787045</v>
+        <v>-76.9090469</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" ht="28.25">
@@ -4003,10 +3988,10 @@
         <v>20602</v>
       </c>
       <c r="K71" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L71" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M71" s="5" t="s">
         <v>25</v>
@@ -4044,10 +4029,10 @@
         <v>20002</v>
       </c>
       <c r="K72" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L72" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M72" s="5" t="s">
         <v>53</v>
@@ -4070,10 +4055,10 @@
         <v>996701834</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>56</v>
@@ -4085,13 +4070,13 @@
         <v>21236</v>
       </c>
       <c r="K73" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L73" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" ht="28.25">
@@ -4126,10 +4111,10 @@
         <v>20002</v>
       </c>
       <c r="K74" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L74" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>53</v>
@@ -4152,13 +4137,13 @@
         <v>993719001</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>16</v>
@@ -4167,13 +4152,13 @@
         <v>20743</v>
       </c>
       <c r="K75" s="2">
-        <v>38.89669781</v>
+        <v>38.897186</v>
       </c>
       <c r="L75" s="2">
-        <v>-76.91418421</v>
+        <v>-76.9144584</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" ht="28.25">
@@ -4204,17 +4189,17 @@
       <c r="I76" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K76" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L76" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M76" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K76" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L76" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="77" ht="28.25">
@@ -4249,10 +4234,10 @@
         <v>20002</v>
       </c>
       <c r="K77" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L77" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M77" s="5" t="s">
         <v>53</v>
@@ -4290,10 +4275,10 @@
         <v>20910</v>
       </c>
       <c r="K78" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L78" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M78" s="5" t="s">
         <v>53</v>
@@ -4331,10 +4316,10 @@
         <v>20706</v>
       </c>
       <c r="K79" s="2">
-        <v>38.96545446</v>
+        <v>38.9661555</v>
       </c>
       <c r="L79" s="2">
-        <v>-76.84507814</v>
+        <v>-76.841284</v>
       </c>
       <c r="M79" s="5" t="s">
         <v>36</v>
@@ -4368,17 +4353,17 @@
       <c r="I80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K80" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L80" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M80" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K80" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L80" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="81" ht="41.65">
@@ -4398,13 +4383,13 @@
         <v>996605561</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>16</v>
@@ -4413,13 +4398,13 @@
         <v>20744</v>
       </c>
       <c r="K81" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L81" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" ht="28.25">
@@ -4439,10 +4424,10 @@
         <v>993711947</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>39</v>
@@ -4454,13 +4439,13 @@
         <v>20754</v>
       </c>
       <c r="K82" s="2">
-        <v>38.72518648</v>
+        <v>38.7259272</v>
       </c>
       <c r="L82" s="2">
-        <v>-76.65694871</v>
+        <v>-76.6575975</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" ht="28.25">
@@ -4480,13 +4465,13 @@
         <v>996605665</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H83" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>16</v>
@@ -4495,13 +4480,13 @@
         <v>20716</v>
       </c>
       <c r="K83" s="2">
-        <v>38.9475207</v>
-      </c>
-      <c r="L83" s="2">
-        <v>-76.73721677</v>
+        <v>38.9780343</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" ht="28.25">
@@ -4521,13 +4506,13 @@
         <v>993719001</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>16</v>
@@ -4536,13 +4521,13 @@
         <v>20743</v>
       </c>
       <c r="K84" s="2">
-        <v>38.89669781</v>
+        <v>38.897186</v>
       </c>
       <c r="L84" s="2">
-        <v>-76.91418421</v>
+        <v>-76.9144584</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" ht="28.25">
@@ -4562,28 +4547,28 @@
         <v>995605680</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="J85" s="2">
         <v>22030</v>
       </c>
       <c r="K85" s="2">
-        <v>38.84815823</v>
+        <v>38.847734</v>
       </c>
       <c r="L85" s="2">
-        <v>-77.30621205</v>
+        <v>-77.3053386</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" ht="28.25">
@@ -4618,10 +4603,10 @@
         <v>20707</v>
       </c>
       <c r="K86" s="2">
-        <v>39.08785665</v>
+        <v>39.0888912</v>
       </c>
       <c r="L86" s="2">
-        <v>-76.86115123</v>
+        <v>-76.8600599</v>
       </c>
       <c r="M86" s="5" t="s">
         <v>48</v>
@@ -4644,10 +4629,10 @@
         <v>996701795</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>60</v>
@@ -4659,13 +4644,13 @@
         <v>20910</v>
       </c>
       <c r="K87" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L87" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" ht="28.25">
@@ -4696,17 +4681,17 @@
       <c r="I88" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K88" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L88" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M88" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K88" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L88" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="89" ht="28.25">
@@ -4726,13 +4711,13 @@
         <v>996700633</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>16</v>
@@ -4741,13 +4726,13 @@
         <v>20785</v>
       </c>
       <c r="K89" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L89" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" ht="28.25">
@@ -4782,10 +4767,10 @@
         <v>20602</v>
       </c>
       <c r="K90" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L90" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M90" s="5" t="s">
         <v>25</v>
@@ -4808,10 +4793,10 @@
         <v>996701795</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>60</v>
@@ -4823,13 +4808,13 @@
         <v>20910</v>
       </c>
       <c r="K91" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L91" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" ht="28.25">
@@ -4864,10 +4849,10 @@
         <v>20770</v>
       </c>
       <c r="K92" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L92" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M92" s="5" t="s">
         <v>17</v>
@@ -4905,10 +4890,10 @@
         <v>20706</v>
       </c>
       <c r="K93" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L93" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M93" s="5" t="s">
         <v>29</v>
@@ -4946,10 +4931,10 @@
         <v>20910</v>
       </c>
       <c r="K94" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L94" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M94" s="5" t="s">
         <v>53</v>
@@ -4987,10 +4972,10 @@
         <v>20770</v>
       </c>
       <c r="K95" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L95" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M95" s="5" t="s">
         <v>17</v>
@@ -5028,10 +5013,10 @@
         <v>20770</v>
       </c>
       <c r="K96" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L96" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M96" s="5" t="s">
         <v>17</v>
@@ -5069,10 +5054,10 @@
         <v>20770</v>
       </c>
       <c r="K97" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L97" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M97" s="5" t="s">
         <v>17</v>
@@ -5095,10 +5080,10 @@
         <v>993878578</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>56</v>
@@ -5106,14 +5091,14 @@
       <c r="I98" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>114</v>
+      <c r="J98" s="2">
+        <v>21215</v>
       </c>
       <c r="K98" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L98" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M98" s="5" t="s">
         <v>53</v>
@@ -5136,13 +5121,13 @@
         <v>996605659</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>16</v>
@@ -5151,13 +5136,13 @@
         <v>21037</v>
       </c>
       <c r="K99" s="2">
-        <v>38.91750719</v>
+        <v>38.9173141</v>
       </c>
       <c r="L99" s="2">
-        <v>-76.56337127</v>
+        <v>-76.5636533</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" ht="28.25">
@@ -5192,10 +5177,10 @@
         <v>20754</v>
       </c>
       <c r="K100" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L100" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M100" s="5" t="s">
         <v>40</v>
@@ -5229,17 +5214,17 @@
       <c r="I101" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K101" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L101" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M101" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K101" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L101" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="102" ht="28.25">
@@ -5259,13 +5244,13 @@
         <v>996700633</v>
       </c>
       <c r="F102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>16</v>
@@ -5274,13 +5259,13 @@
         <v>20785</v>
       </c>
       <c r="K102" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L102" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" ht="28.25">
@@ -5300,13 +5285,13 @@
         <v>996700633</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>16</v>
@@ -5315,13 +5300,13 @@
         <v>20785</v>
       </c>
       <c r="K103" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L103" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" ht="28.25">
@@ -5341,13 +5326,13 @@
         <v>996700633</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>16</v>
@@ -5356,13 +5341,13 @@
         <v>20785</v>
       </c>
       <c r="K104" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L104" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" ht="28.25">
@@ -5397,10 +5382,10 @@
         <v>20602</v>
       </c>
       <c r="K105" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L105" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M105" s="5" t="s">
         <v>25</v>
@@ -5438,10 +5423,10 @@
         <v>20770</v>
       </c>
       <c r="K106" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L106" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>17</v>
@@ -5479,10 +5464,10 @@
         <v>20745</v>
       </c>
       <c r="K107" s="2">
-        <v>38.818065</v>
+        <v>38.8180959</v>
       </c>
       <c r="L107" s="2">
-        <v>-76.999033</v>
+        <v>-76.9988597</v>
       </c>
       <c r="M107" s="5" t="s">
         <v>21</v>
@@ -5520,10 +5505,10 @@
         <v>20770</v>
       </c>
       <c r="K108" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L108" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M108" s="5" t="s">
         <v>17</v>
@@ -5546,13 +5531,13 @@
         <v>996700633</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>16</v>
@@ -5561,13 +5546,13 @@
         <v>20785</v>
       </c>
       <c r="K109" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L109" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" ht="28.25">
@@ -5602,10 +5587,10 @@
         <v>20770</v>
       </c>
       <c r="K110" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L110" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M110" s="5" t="s">
         <v>17</v>
@@ -5643,10 +5628,10 @@
         <v>20602</v>
       </c>
       <c r="K111" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L111" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>25</v>
@@ -5684,10 +5669,10 @@
         <v>20602</v>
       </c>
       <c r="K112" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L112" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>25</v>
@@ -5710,10 +5695,10 @@
         <v>996701834</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>56</v>
@@ -5725,13 +5710,13 @@
         <v>21236</v>
       </c>
       <c r="K113" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L113" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" ht="28.25">
@@ -5766,10 +5751,10 @@
         <v>20706</v>
       </c>
       <c r="K114" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L114" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>29</v>
@@ -5803,17 +5788,17 @@
       <c r="I115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K115" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L115" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M115" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K115" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L115" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="116" ht="28.25">
@@ -5844,17 +5829,17 @@
       <c r="I116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K116" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L116" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M116" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K116" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L116" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M116" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="117" ht="28.25">
@@ -5885,17 +5870,17 @@
       <c r="I117" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K117" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L117" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M117" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K117" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L117" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M117" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="118" ht="28.25">
@@ -5915,13 +5900,13 @@
         <v>993713632</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>16</v>
@@ -5930,13 +5915,13 @@
         <v>20784</v>
       </c>
       <c r="K118" s="2">
-        <v>38.9499219</v>
+        <v>38.95024</v>
       </c>
       <c r="L118" s="2">
-        <v>-76.88643244</v>
+        <v>-76.8857</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" ht="28.25">
@@ -5971,10 +5956,10 @@
         <v>20706</v>
       </c>
       <c r="K119" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L119" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>29</v>
@@ -5997,13 +5982,13 @@
         <v>993719001</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>16</v>
@@ -6012,13 +5997,13 @@
         <v>20743</v>
       </c>
       <c r="K120" s="2">
-        <v>38.89669781</v>
+        <v>38.897186</v>
       </c>
       <c r="L120" s="2">
-        <v>-76.91418421</v>
+        <v>-76.9144584</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" ht="28.25">
@@ -6038,13 +6023,13 @@
         <v>996700633</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>16</v>
@@ -6053,13 +6038,13 @@
         <v>20785</v>
       </c>
       <c r="K121" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L121" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" ht="28.25">
@@ -6094,10 +6079,10 @@
         <v>20706</v>
       </c>
       <c r="K122" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L122" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M122" s="5" t="s">
         <v>29</v>
@@ -6120,13 +6105,13 @@
         <v>996605561</v>
       </c>
       <c r="F123" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>16</v>
@@ -6135,13 +6120,13 @@
         <v>20744</v>
       </c>
       <c r="K123" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L123" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" ht="28.25">
@@ -6176,10 +6161,10 @@
         <v>20706</v>
       </c>
       <c r="K124" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L124" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M124" s="5" t="s">
         <v>29</v>
@@ -6202,10 +6187,10 @@
         <v>996275967</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>56</v>
@@ -6217,13 +6202,13 @@
         <v>21202</v>
       </c>
       <c r="K125" s="2">
-        <v>39.31000099</v>
+        <v>39.3101247</v>
       </c>
       <c r="L125" s="2">
-        <v>-76.61334748</v>
+        <v>-76.6124966</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" ht="28.25">
@@ -6243,13 +6228,13 @@
         <v>996605665</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H126" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>16</v>
@@ -6258,13 +6243,13 @@
         <v>20716</v>
       </c>
       <c r="K126" s="2">
-        <v>38.9475207</v>
-      </c>
-      <c r="L126" s="2">
-        <v>-76.73721677</v>
+        <v>38.9780343</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" ht="14.8">
@@ -6284,10 +6269,10 @@
         <v>996275967</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>56</v>
@@ -6299,13 +6284,13 @@
         <v>21202</v>
       </c>
       <c r="K127" s="2">
-        <v>39.31000099</v>
+        <v>39.3101247</v>
       </c>
       <c r="L127" s="2">
-        <v>-76.61334748</v>
+        <v>-76.6124966</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" ht="28.25">
@@ -6340,10 +6325,10 @@
         <v>21220</v>
       </c>
       <c r="K128" s="2">
-        <v>39.35227362</v>
+        <v>39.3521884</v>
       </c>
       <c r="L128" s="2">
-        <v>-76.45195941</v>
+        <v>-76.4509291</v>
       </c>
       <c r="M128" s="5" t="s">
         <v>57</v>
@@ -6366,13 +6351,13 @@
         <v>996700633</v>
       </c>
       <c r="F129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>16</v>
@@ -6381,13 +6366,13 @@
         <v>20785</v>
       </c>
       <c r="K129" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L129" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" ht="14.8">
@@ -6407,28 +6392,28 @@
         <v>996174730</v>
       </c>
       <c r="F130" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="I130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="2">
+        <v>21401</v>
+      </c>
+      <c r="K130" s="2">
+        <v>38.983422</v>
+      </c>
+      <c r="L130" s="2">
+        <v>-76.5353461</v>
+      </c>
+      <c r="M130" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K130" s="2">
-        <v>38.98313875</v>
-      </c>
-      <c r="L130" s="2">
-        <v>-76.5352953</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="131" ht="28.25">
@@ -6448,13 +6433,13 @@
         <v>993705513</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>16</v>
@@ -6463,13 +6448,13 @@
         <v>20746</v>
       </c>
       <c r="K131" s="2">
-        <v>38.80670627</v>
-      </c>
-      <c r="L131" s="2">
-        <v>-76.90257496</v>
+        <v>38.8083376</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" ht="28.25">
@@ -6504,10 +6489,10 @@
         <v>20602</v>
       </c>
       <c r="K132" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L132" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M132" s="5" t="s">
         <v>25</v>
@@ -6545,10 +6530,10 @@
         <v>20770</v>
       </c>
       <c r="K133" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L133" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M133" s="5" t="s">
         <v>17</v>
@@ -6586,10 +6571,10 @@
         <v>20754</v>
       </c>
       <c r="K134" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L134" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M134" s="5" t="s">
         <v>40</v>
@@ -6612,10 +6597,10 @@
         <v>996705567</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>47</v>
@@ -6627,13 +6612,13 @@
         <v>20707</v>
       </c>
       <c r="K135" s="2">
-        <v>39.10753743</v>
+        <v>39.1077789</v>
       </c>
       <c r="L135" s="2">
-        <v>-76.85136116</v>
+        <v>-76.8515105</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" ht="28.25">
@@ -6653,13 +6638,13 @@
         <v>993705513</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>16</v>
@@ -6668,13 +6653,13 @@
         <v>20746</v>
       </c>
       <c r="K136" s="2">
-        <v>38.80670627</v>
-      </c>
-      <c r="L136" s="2">
-        <v>-76.90257496</v>
+        <v>38.8083376</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" ht="28.25">
@@ -6709,10 +6694,10 @@
         <v>20602</v>
       </c>
       <c r="K137" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L137" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M137" s="5" t="s">
         <v>25</v>
@@ -6735,13 +6720,13 @@
         <v>996605659</v>
       </c>
       <c r="F138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>16</v>
@@ -6750,13 +6735,13 @@
         <v>21037</v>
       </c>
       <c r="K138" s="2">
-        <v>38.91750719</v>
+        <v>38.9173141</v>
       </c>
       <c r="L138" s="2">
-        <v>-76.56337127</v>
+        <v>-76.5636533</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139" ht="28.25">
@@ -6776,10 +6761,10 @@
         <v>996701834</v>
       </c>
       <c r="F139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>56</v>
@@ -6791,13 +6776,13 @@
         <v>21236</v>
       </c>
       <c r="K139" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L139" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" ht="28.25">
@@ -6832,10 +6817,10 @@
         <v>20706</v>
       </c>
       <c r="K140" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L140" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M140" s="5" t="s">
         <v>29</v>
@@ -6858,28 +6843,28 @@
         <v>996207675</v>
       </c>
       <c r="F141" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="I141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="2">
+        <v>21009</v>
+      </c>
+      <c r="K141" s="2">
+        <v>39.4782633</v>
+      </c>
+      <c r="L141" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I141" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J141" s="2" t="s">
+      <c r="M141" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="K141" s="2">
-        <v>39.478349</v>
-      </c>
-      <c r="L141" s="2">
-        <v>-76.309852</v>
-      </c>
-      <c r="M141" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="142" ht="41.65">
@@ -6899,13 +6884,13 @@
         <v>996605561</v>
       </c>
       <c r="F142" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>16</v>
@@ -6914,13 +6899,13 @@
         <v>20744</v>
       </c>
       <c r="K142" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L142" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" ht="28.25">
@@ -6940,28 +6925,28 @@
         <v>996207675</v>
       </c>
       <c r="F143" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="I143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="2">
+        <v>21009</v>
+      </c>
+      <c r="K143" s="2">
+        <v>39.4782633</v>
+      </c>
+      <c r="L143" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J143" s="2" t="s">
+      <c r="M143" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="K143" s="2">
-        <v>39.478349</v>
-      </c>
-      <c r="L143" s="2">
-        <v>-76.309852</v>
-      </c>
-      <c r="M143" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="144" ht="28.25">
@@ -6981,13 +6966,13 @@
         <v>996701927</v>
       </c>
       <c r="F144" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>16</v>
@@ -6996,10 +6981,10 @@
         <v>21117</v>
       </c>
       <c r="K144" s="2">
-        <v>39.39938209</v>
+        <v>39.3986812</v>
       </c>
       <c r="L144" s="2">
-        <v>-76.75373208</v>
+        <v>-76.7540077</v>
       </c>
       <c r="M144" s="5" t="s">
         <v>53</v>
@@ -7022,13 +7007,13 @@
         <v>996605659</v>
       </c>
       <c r="F145" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>16</v>
@@ -7037,13 +7022,13 @@
         <v>21037</v>
       </c>
       <c r="K145" s="2">
-        <v>38.91750719</v>
+        <v>38.9173141</v>
       </c>
       <c r="L145" s="2">
-        <v>-76.56337127</v>
+        <v>-76.5636533</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" ht="28.25">
@@ -7078,10 +7063,10 @@
         <v>20754</v>
       </c>
       <c r="K146" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L146" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M146" s="5" t="s">
         <v>40</v>
@@ -7104,10 +7089,10 @@
         <v>996275967</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>56</v>
@@ -7119,13 +7104,13 @@
         <v>21202</v>
       </c>
       <c r="K147" s="2">
-        <v>39.31000099</v>
+        <v>39.3101247</v>
       </c>
       <c r="L147" s="2">
-        <v>-76.61334748</v>
+        <v>-76.6124966</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" ht="28.25">
@@ -7145,10 +7130,10 @@
         <v>996701795</v>
       </c>
       <c r="F148" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>60</v>
@@ -7160,13 +7145,13 @@
         <v>20910</v>
       </c>
       <c r="K148" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L148" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" ht="28.25">
@@ -7201,10 +7186,10 @@
         <v>20602</v>
       </c>
       <c r="K149" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L149" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M149" s="5" t="s">
         <v>25</v>
@@ -7227,28 +7212,28 @@
         <v>996237563</v>
       </c>
       <c r="F150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="H150" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="I150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="2">
+        <v>21015</v>
+      </c>
+      <c r="K150" s="2">
+        <v>39.4989307</v>
+      </c>
+      <c r="L150" s="2">
+        <v>-76.3239732</v>
+      </c>
+      <c r="M150" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K150" s="2">
-        <v>39.49914</v>
-      </c>
-      <c r="L150" s="2">
-        <v>-76.324354</v>
-      </c>
-      <c r="M150" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="151" ht="28.25">
@@ -7268,13 +7253,13 @@
         <v>996700633</v>
       </c>
       <c r="F151" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>16</v>
@@ -7283,13 +7268,13 @@
         <v>20785</v>
       </c>
       <c r="K151" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L151" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" ht="28.25">
@@ -7309,13 +7294,13 @@
         <v>996700633</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>16</v>
@@ -7324,13 +7309,13 @@
         <v>20785</v>
       </c>
       <c r="K152" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L152" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" ht="28.25">
@@ -7350,13 +7335,13 @@
         <v>996700633</v>
       </c>
       <c r="F153" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>16</v>
@@ -7365,13 +7350,13 @@
         <v>20785</v>
       </c>
       <c r="K153" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L153" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" ht="28.25">
@@ -7406,10 +7391,10 @@
         <v>20707</v>
       </c>
       <c r="K154" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L154" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M154" s="5" t="s">
         <v>67</v>
@@ -7447,10 +7432,10 @@
         <v>20770</v>
       </c>
       <c r="K155" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L155" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M155" s="5" t="s">
         <v>17</v>
@@ -7488,10 +7473,10 @@
         <v>20770</v>
       </c>
       <c r="K156" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L156" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M156" s="5" t="s">
         <v>17</v>
@@ -7529,10 +7514,10 @@
         <v>20770</v>
       </c>
       <c r="K157" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L157" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M157" s="5" t="s">
         <v>17</v>
@@ -7570,10 +7555,10 @@
         <v>20770</v>
       </c>
       <c r="K158" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L158" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M158" s="5" t="s">
         <v>17</v>
@@ -7611,10 +7596,10 @@
         <v>20602</v>
       </c>
       <c r="K159" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L159" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M159" s="5" t="s">
         <v>25</v>
@@ -7652,10 +7637,10 @@
         <v>20754</v>
       </c>
       <c r="K160" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L160" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M160" s="5" t="s">
         <v>40</v>
@@ -7693,10 +7678,10 @@
         <v>20602</v>
       </c>
       <c r="K161" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L161" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M161" s="5" t="s">
         <v>25</v>
@@ -7734,10 +7719,10 @@
         <v>20770</v>
       </c>
       <c r="K162" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L162" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M162" s="5" t="s">
         <v>17</v>
@@ -7760,28 +7745,28 @@
         <v>996207675</v>
       </c>
       <c r="F163" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="H163" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H163" s="2" t="s">
+      <c r="I163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="2">
+        <v>21009</v>
+      </c>
+      <c r="K163" s="2">
+        <v>39.4782633</v>
+      </c>
+      <c r="L163" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J163" s="2" t="s">
+      <c r="M163" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="K163" s="2">
-        <v>39.478349</v>
-      </c>
-      <c r="L163" s="2">
-        <v>-76.309852</v>
-      </c>
-      <c r="M163" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="164" ht="28.25">
@@ -7801,13 +7786,13 @@
         <v>996605665</v>
       </c>
       <c r="F164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G164" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H164" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>16</v>
@@ -7816,13 +7801,13 @@
         <v>20716</v>
       </c>
       <c r="K164" s="2">
-        <v>38.9475207</v>
-      </c>
-      <c r="L164" s="2">
-        <v>-76.73721677</v>
+        <v>38.9780343</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" ht="28.25">
@@ -7857,10 +7842,10 @@
         <v>20602</v>
       </c>
       <c r="K165" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L165" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M165" s="5" t="s">
         <v>25</v>
@@ -7883,10 +7868,10 @@
         <v>993878578</v>
       </c>
       <c r="F166" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>56</v>
@@ -7894,14 +7879,14 @@
       <c r="I166" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>114</v>
+      <c r="J166" s="2">
+        <v>21215</v>
       </c>
       <c r="K166" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L166" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M166" s="5" t="s">
         <v>53</v>
@@ -7924,13 +7909,13 @@
         <v>996302056</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>16</v>
@@ -7939,13 +7924,13 @@
         <v>20715</v>
       </c>
       <c r="K167" s="2">
-        <v>38.97845362</v>
+        <v>38.9776629</v>
       </c>
       <c r="L167" s="2">
-        <v>-76.7326465</v>
+        <v>-76.732044</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168" ht="41.65">
@@ -7965,13 +7950,13 @@
         <v>996605561</v>
       </c>
       <c r="F168" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="H168" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>16</v>
@@ -7980,13 +7965,13 @@
         <v>20744</v>
       </c>
       <c r="K168" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L168" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" ht="28.25">
@@ -8006,13 +7991,13 @@
         <v>993713024</v>
       </c>
       <c r="F169" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>16</v>
@@ -8021,13 +8006,13 @@
         <v>20745</v>
       </c>
       <c r="K169" s="2">
-        <v>38.7846183</v>
+        <v>38.784694</v>
       </c>
       <c r="L169" s="2">
-        <v>-77.01443529</v>
+        <v>-77.0152403</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" ht="28.25">
@@ -8058,17 +8043,17 @@
       <c r="I170" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J170" s="2" t="s">
+      <c r="J170" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K170" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L170" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M170" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K170" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L170" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M170" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="171" ht="28.25">
@@ -8088,10 +8073,10 @@
         <v>996701795</v>
       </c>
       <c r="F171" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>60</v>
@@ -8103,13 +8088,13 @@
         <v>20910</v>
       </c>
       <c r="K171" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L171" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M171" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" ht="28.25">
@@ -8144,10 +8129,10 @@
         <v>21601</v>
       </c>
       <c r="K172" s="2">
-        <v>38.760413</v>
+        <v>38.760463</v>
       </c>
       <c r="L172" s="2">
-        <v>-76.061989</v>
+        <v>-76.0624659</v>
       </c>
       <c r="M172" s="5" t="s">
         <v>53</v>
@@ -8170,13 +8155,13 @@
         <v>996605561</v>
       </c>
       <c r="F173" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="H173" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>16</v>
@@ -8185,13 +8170,13 @@
         <v>20744</v>
       </c>
       <c r="K173" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L173" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" ht="28.25">
@@ -8226,10 +8211,10 @@
         <v>20002</v>
       </c>
       <c r="K174" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L174" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M174" s="5" t="s">
         <v>53</v>
@@ -8267,10 +8252,10 @@
         <v>20002</v>
       </c>
       <c r="K175" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L175" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M175" s="5" t="s">
         <v>53</v>
@@ -8308,10 +8293,10 @@
         <v>20602</v>
       </c>
       <c r="K176" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L176" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M176" s="5" t="s">
         <v>25</v>
@@ -8349,10 +8334,10 @@
         <v>20754</v>
       </c>
       <c r="K177" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L177" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M177" s="5" t="s">
         <v>40</v>
@@ -8390,10 +8375,10 @@
         <v>20770</v>
       </c>
       <c r="K178" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L178" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M178" s="5" t="s">
         <v>17</v>
@@ -8413,13 +8398,13 @@
         <v>45632</v>
       </c>
       <c r="E179" s="2">
-        <v>994518555</v>
+        <v>996716273</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>32</v>
@@ -8431,13 +8416,13 @@
         <v>20619</v>
       </c>
       <c r="K179" s="2">
-        <v>38.287827</v>
+        <v>38.2880058</v>
       </c>
       <c r="L179" s="2">
-        <v>-76.486659</v>
+        <v>-76.4845037</v>
       </c>
       <c r="M179" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180" ht="28.25">
@@ -8472,10 +8457,10 @@
         <v>20002</v>
       </c>
       <c r="K180" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L180" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M180" s="5" t="s">
         <v>53</v>
@@ -8498,13 +8483,13 @@
         <v>996605665</v>
       </c>
       <c r="F181" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G181" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H181" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>16</v>
@@ -8513,13 +8498,13 @@
         <v>20716</v>
       </c>
       <c r="K181" s="2">
-        <v>38.9475207</v>
-      </c>
-      <c r="L181" s="2">
-        <v>-76.73721677</v>
+        <v>38.9780343</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M181" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182" ht="28.25">
@@ -8539,10 +8524,10 @@
         <v>996701834</v>
       </c>
       <c r="F182" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>56</v>
@@ -8554,13 +8539,13 @@
         <v>21236</v>
       </c>
       <c r="K182" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L182" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M182" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" ht="28.25">
@@ -8591,17 +8576,17 @@
       <c r="I183" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="2" t="s">
+      <c r="J183" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K183" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L183" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M183" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K183" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L183" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M183" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="184" ht="28.25">
@@ -8621,10 +8606,10 @@
         <v>996701795</v>
       </c>
       <c r="F184" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>60</v>
@@ -8636,13 +8621,13 @@
         <v>20910</v>
       </c>
       <c r="K184" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L184" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M184" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" ht="28.25">
@@ -8662,10 +8647,10 @@
         <v>996701795</v>
       </c>
       <c r="F185" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>60</v>
@@ -8677,13 +8662,13 @@
         <v>20910</v>
       </c>
       <c r="K185" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L185" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M185" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="186" ht="14.8">
@@ -8703,13 +8688,13 @@
         <v>995274400</v>
       </c>
       <c r="F186" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H186" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>16</v>
@@ -8718,13 +8703,13 @@
         <v>20814</v>
       </c>
       <c r="K186" s="2">
-        <v>38.9825854</v>
+        <v>38.9823342</v>
       </c>
       <c r="L186" s="2">
-        <v>-77.09401158</v>
+        <v>-77.0957174</v>
       </c>
       <c r="M186" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" ht="28.25">
@@ -8759,10 +8744,10 @@
         <v>20745</v>
       </c>
       <c r="K187" s="2">
-        <v>38.818065</v>
+        <v>38.8180959</v>
       </c>
       <c r="L187" s="2">
-        <v>-76.999033</v>
+        <v>-76.9988597</v>
       </c>
       <c r="M187" s="5" t="s">
         <v>21</v>
@@ -8785,13 +8770,13 @@
         <v>996605561</v>
       </c>
       <c r="F188" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="H188" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>16</v>
@@ -8800,13 +8785,13 @@
         <v>20744</v>
       </c>
       <c r="K188" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L188" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="189" ht="41.65">
@@ -8826,13 +8811,13 @@
         <v>996605561</v>
       </c>
       <c r="F189" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="H189" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>16</v>
@@ -8841,13 +8826,13 @@
         <v>20744</v>
       </c>
       <c r="K189" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L189" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M189" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" ht="14.8">
@@ -8867,10 +8852,10 @@
         <v>996605625</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>15</v>
@@ -8882,13 +8867,13 @@
         <v>20770</v>
       </c>
       <c r="K190" s="2">
-        <v>38.99190525</v>
+        <v>38.9909797</v>
       </c>
       <c r="L190" s="2">
-        <v>-76.88176481</v>
+        <v>-76.8779963</v>
       </c>
       <c r="M190" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" ht="14.8">
@@ -8908,13 +8893,13 @@
         <v>995274400</v>
       </c>
       <c r="F191" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H191" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>16</v>
@@ -8923,13 +8908,13 @@
         <v>20814</v>
       </c>
       <c r="K191" s="2">
-        <v>38.9825854</v>
+        <v>38.9823342</v>
       </c>
       <c r="L191" s="2">
-        <v>-77.09401158</v>
+        <v>-77.0957174</v>
       </c>
       <c r="M191" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" ht="28.25">
@@ -8964,10 +8949,10 @@
         <v>20706</v>
       </c>
       <c r="K192" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L192" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M192" s="5" t="s">
         <v>29</v>
@@ -9005,10 +8990,10 @@
         <v>20770</v>
       </c>
       <c r="K193" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L193" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M193" s="5" t="s">
         <v>17</v>
@@ -9046,10 +9031,10 @@
         <v>20770</v>
       </c>
       <c r="K194" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L194" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M194" s="5" t="s">
         <v>17</v>
@@ -9087,10 +9072,10 @@
         <v>20745</v>
       </c>
       <c r="K195" s="2">
-        <v>38.818065</v>
+        <v>38.8180959</v>
       </c>
       <c r="L195" s="2">
-        <v>-76.999033</v>
+        <v>-76.9988597</v>
       </c>
       <c r="M195" s="5" t="s">
         <v>21</v>
@@ -9128,10 +9113,10 @@
         <v>20910</v>
       </c>
       <c r="K196" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L196" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M196" s="5" t="s">
         <v>53</v>
@@ -9169,10 +9154,10 @@
         <v>20602</v>
       </c>
       <c r="K197" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L197" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M197" s="5" t="s">
         <v>25</v>
@@ -9210,10 +9195,10 @@
         <v>20706</v>
       </c>
       <c r="K198" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L198" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M198" s="5" t="s">
         <v>29</v>
@@ -9251,10 +9236,10 @@
         <v>20707</v>
       </c>
       <c r="K199" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L199" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M199" s="5" t="s">
         <v>67</v>
@@ -9292,10 +9277,10 @@
         <v>20707</v>
       </c>
       <c r="K200" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L200" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M200" s="5" t="s">
         <v>67</v>
@@ -9333,10 +9318,10 @@
         <v>20770</v>
       </c>
       <c r="K201" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L201" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M201" s="5" t="s">
         <v>17</v>
@@ -9359,10 +9344,10 @@
         <v>996275967</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>56</v>
@@ -9374,13 +9359,13 @@
         <v>21202</v>
       </c>
       <c r="K202" s="2">
-        <v>39.31000099</v>
+        <v>39.3101247</v>
       </c>
       <c r="L202" s="2">
-        <v>-76.61334748</v>
+        <v>-76.6124966</v>
       </c>
       <c r="M202" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="203" ht="28.25">
@@ -9415,10 +9400,10 @@
         <v>20910</v>
       </c>
       <c r="K203" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L203" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M203" s="5" t="s">
         <v>53</v>
@@ -9456,10 +9441,10 @@
         <v>20002</v>
       </c>
       <c r="K204" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L204" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M204" s="5" t="s">
         <v>53</v>
@@ -9482,13 +9467,13 @@
         <v>996605561</v>
       </c>
       <c r="F205" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G205" s="2" t="s">
+      <c r="H205" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>16</v>
@@ -9497,13 +9482,13 @@
         <v>20744</v>
       </c>
       <c r="K205" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L205" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M205" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206" ht="28.25">
@@ -9538,10 +9523,10 @@
         <v>20707</v>
       </c>
       <c r="K206" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L206" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M206" s="5" t="s">
         <v>67</v>
@@ -9575,17 +9560,17 @@
       <c r="I207" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J207" s="2" t="s">
+      <c r="J207" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K207" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L207" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M207" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K207" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L207" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M207" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="208" ht="28.25">
@@ -9616,17 +9601,17 @@
       <c r="I208" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J208" s="2" t="s">
+      <c r="J208" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K208" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L208" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M208" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K208" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L208" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M208" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="209" ht="28.25">
@@ -9657,17 +9642,17 @@
       <c r="I209" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J209" s="2" t="s">
+      <c r="J209" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K209" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L209" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M209" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K209" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L209" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M209" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="210" ht="28.25">
@@ -9702,10 +9687,10 @@
         <v>20707</v>
       </c>
       <c r="K210" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L210" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M210" s="5" t="s">
         <v>67</v>
@@ -9743,10 +9728,10 @@
         <v>20707</v>
       </c>
       <c r="K211" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L211" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M211" s="5" t="s">
         <v>67</v>
@@ -9784,10 +9769,10 @@
         <v>20706</v>
       </c>
       <c r="K212" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L212" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M212" s="5" t="s">
         <v>29</v>
@@ -9810,10 +9795,10 @@
         <v>993878578</v>
       </c>
       <c r="F213" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>56</v>
@@ -9821,14 +9806,14 @@
       <c r="I213" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>114</v>
+      <c r="J213" s="2">
+        <v>21215</v>
       </c>
       <c r="K213" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L213" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M213" s="5" t="s">
         <v>53</v>
@@ -9851,10 +9836,10 @@
         <v>993878578</v>
       </c>
       <c r="F214" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>56</v>
@@ -9862,14 +9847,14 @@
       <c r="I214" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>114</v>
+      <c r="J214" s="2">
+        <v>21215</v>
       </c>
       <c r="K214" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L214" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M214" s="5" t="s">
         <v>53</v>
@@ -9892,10 +9877,10 @@
         <v>996701834</v>
       </c>
       <c r="F215" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>56</v>
@@ -9907,13 +9892,13 @@
         <v>21236</v>
       </c>
       <c r="K215" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L215" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M215" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="216" ht="28.25">
@@ -9933,13 +9918,13 @@
         <v>996700633</v>
       </c>
       <c r="F216" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G216" s="2" t="s">
+      <c r="H216" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I216" s="2" t="s">
         <v>16</v>
@@ -9948,13 +9933,13 @@
         <v>20785</v>
       </c>
       <c r="K216" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L216" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M216" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="217" ht="28.25">
@@ -9989,10 +9974,10 @@
         <v>20754</v>
       </c>
       <c r="K217" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L217" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M217" s="5" t="s">
         <v>40</v>
@@ -10015,10 +10000,10 @@
         <v>996701795</v>
       </c>
       <c r="F218" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>60</v>
@@ -10030,13 +10015,13 @@
         <v>20910</v>
       </c>
       <c r="K218" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L218" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M218" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="219" ht="28.25">
@@ -10071,10 +10056,10 @@
         <v>20706</v>
       </c>
       <c r="K219" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L219" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M219" s="5" t="s">
         <v>29</v>
@@ -10108,17 +10093,17 @@
       <c r="I220" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J220" s="2" t="s">
+      <c r="J220" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K220" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L220" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M220" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K220" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L220" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M220" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="221" ht="28.25">
@@ -10138,13 +10123,13 @@
         <v>993714301</v>
       </c>
       <c r="F221" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H221" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>16</v>
@@ -10153,13 +10138,13 @@
         <v>20902</v>
       </c>
       <c r="K221" s="2">
-        <v>39.03964765</v>
+        <v>39.039328</v>
       </c>
       <c r="L221" s="2">
-        <v>-77.05581684</v>
+        <v>-77.055738</v>
       </c>
       <c r="M221" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222" ht="28.25">
@@ -10194,10 +10179,10 @@
         <v>20707</v>
       </c>
       <c r="K222" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L222" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M222" s="5" t="s">
         <v>67</v>
@@ -10235,10 +10220,10 @@
         <v>20707</v>
       </c>
       <c r="K223" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L223" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M223" s="5" t="s">
         <v>67</v>
@@ -10261,10 +10246,10 @@
         <v>996275967</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>56</v>
@@ -10276,13 +10261,13 @@
         <v>21202</v>
       </c>
       <c r="K224" s="2">
-        <v>39.31000099</v>
+        <v>39.3101247</v>
       </c>
       <c r="L224" s="2">
-        <v>-76.61334748</v>
+        <v>-76.6124966</v>
       </c>
       <c r="M224" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="225" ht="28.25">
@@ -10302,28 +10287,28 @@
         <v>993722766</v>
       </c>
       <c r="F225" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H225" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G225" s="2" t="s">
+      <c r="I225" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I225" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="J225" s="2">
         <v>19904</v>
       </c>
       <c r="K225" s="2">
-        <v>39.159995</v>
+        <v>39.1599892</v>
       </c>
       <c r="L225" s="2">
-        <v>-75.555612</v>
+        <v>-75.5556753</v>
       </c>
       <c r="M225" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="226" ht="28.25">
@@ -10343,10 +10328,10 @@
         <v>996701834</v>
       </c>
       <c r="F226" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>56</v>
@@ -10358,13 +10343,13 @@
         <v>21236</v>
       </c>
       <c r="K226" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L226" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M226" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="227" ht="28.25">
@@ -10384,28 +10369,28 @@
         <v>996207675</v>
       </c>
       <c r="F227" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G227" s="2" t="s">
+      <c r="H227" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H227" s="2" t="s">
+      <c r="I227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J227" s="2">
+        <v>21009</v>
+      </c>
+      <c r="K227" s="2">
+        <v>39.4782633</v>
+      </c>
+      <c r="L227" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I227" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J227" s="2" t="s">
+      <c r="M227" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="K227" s="2">
-        <v>39.478349</v>
-      </c>
-      <c r="L227" s="2">
-        <v>-76.309852</v>
-      </c>
-      <c r="M227" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="228" ht="28.25">
@@ -10425,13 +10410,13 @@
         <v>996705531</v>
       </c>
       <c r="F228" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>16</v>
@@ -10440,13 +10425,13 @@
         <v>20678</v>
       </c>
       <c r="K228" s="2">
-        <v>38.55346561</v>
+        <v>38.5515708</v>
       </c>
       <c r="L228" s="2">
-        <v>-76.59234327</v>
+        <v>-76.5902719</v>
       </c>
       <c r="M228" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="229" ht="28.25">
@@ -10481,10 +10466,10 @@
         <v>20602</v>
       </c>
       <c r="K229" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L229" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M229" s="5" t="s">
         <v>25</v>
@@ -10507,13 +10492,13 @@
         <v>993714301</v>
       </c>
       <c r="F230" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H230" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>16</v>
@@ -10522,13 +10507,13 @@
         <v>20902</v>
       </c>
       <c r="K230" s="2">
-        <v>39.03964765</v>
+        <v>39.039328</v>
       </c>
       <c r="L230" s="2">
-        <v>-77.05581684</v>
+        <v>-77.055738</v>
       </c>
       <c r="M230" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="231" ht="28.25">
@@ -10559,17 +10544,17 @@
       <c r="I231" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="2" t="s">
+      <c r="J231" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K231" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L231" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M231" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K231" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L231" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M231" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="232" ht="28.25">
@@ -10589,13 +10574,13 @@
         <v>993714301</v>
       </c>
       <c r="F232" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H232" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>16</v>
@@ -10604,13 +10589,13 @@
         <v>20902</v>
       </c>
       <c r="K232" s="2">
-        <v>39.03964765</v>
+        <v>39.039328</v>
       </c>
       <c r="L232" s="2">
-        <v>-77.05581684</v>
+        <v>-77.055738</v>
       </c>
       <c r="M232" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="233" ht="28.25">
@@ -10645,10 +10630,10 @@
         <v>20910</v>
       </c>
       <c r="K233" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L233" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M233" s="5" t="s">
         <v>53</v>
@@ -10686,10 +10671,10 @@
         <v>20770</v>
       </c>
       <c r="K234" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L234" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M234" s="5" t="s">
         <v>17</v>
@@ -10727,10 +10712,10 @@
         <v>20745</v>
       </c>
       <c r="K235" s="2">
-        <v>38.818065</v>
+        <v>38.8180959</v>
       </c>
       <c r="L235" s="2">
-        <v>-76.999033</v>
+        <v>-76.9988597</v>
       </c>
       <c r="M235" s="5" t="s">
         <v>21</v>
@@ -10753,10 +10738,10 @@
         <v>996701795</v>
       </c>
       <c r="F236" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>60</v>
@@ -10768,13 +10753,13 @@
         <v>20910</v>
       </c>
       <c r="K236" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L236" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M236" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="237" ht="28.25">
@@ -10809,10 +10794,10 @@
         <v>20706</v>
       </c>
       <c r="K237" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L237" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M237" s="5" t="s">
         <v>29</v>
@@ -10850,10 +10835,10 @@
         <v>20754</v>
       </c>
       <c r="K238" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L238" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M238" s="5" t="s">
         <v>40</v>
@@ -10876,10 +10861,10 @@
         <v>996465882</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H239" s="2" t="s">
         <v>51</v>
@@ -10887,17 +10872,17 @@
       <c r="I239" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>182</v>
+      <c r="J239" s="2">
+        <v>20001</v>
       </c>
       <c r="K239" s="2">
-        <v>38.89847345</v>
+        <v>38.898431</v>
       </c>
       <c r="L239" s="2">
-        <v>-77.01135822</v>
+        <v>-77.0104605</v>
       </c>
       <c r="M239" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240" ht="28.25">
@@ -10917,28 +10902,28 @@
         <v>995605680</v>
       </c>
       <c r="F240" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G240" s="2" t="s">
+      <c r="H240" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H240" s="2" t="s">
+      <c r="I240" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="I240" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="J240" s="2">
         <v>22030</v>
       </c>
       <c r="K240" s="2">
-        <v>38.84815823</v>
+        <v>38.847734</v>
       </c>
       <c r="L240" s="2">
-        <v>-77.30621205</v>
+        <v>-77.3053386</v>
       </c>
       <c r="M240" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" ht="28.25">
@@ -10958,10 +10943,10 @@
         <v>996701834</v>
       </c>
       <c r="F241" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>56</v>
@@ -10973,13 +10958,13 @@
         <v>21236</v>
       </c>
       <c r="K241" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L241" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M241" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" ht="28.25">
@@ -11014,10 +10999,10 @@
         <v>20707</v>
       </c>
       <c r="K242" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L242" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M242" s="5" t="s">
         <v>67</v>
@@ -11040,10 +11025,10 @@
         <v>996701795</v>
       </c>
       <c r="F243" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>60</v>
@@ -11055,13 +11040,13 @@
         <v>20910</v>
       </c>
       <c r="K243" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L243" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M243" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="244" ht="14.8">
@@ -11081,13 +11066,13 @@
         <v>996605037</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I244" s="2" t="s">
         <v>16</v>
@@ -11096,13 +11081,13 @@
         <v>21093</v>
       </c>
       <c r="K244" s="2">
-        <v>39.420141</v>
+        <v>39.4200165</v>
       </c>
       <c r="L244" s="2">
-        <v>-76.614934</v>
+        <v>-76.6147168</v>
       </c>
       <c r="M244" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="245" ht="28.25">
@@ -11122,13 +11107,13 @@
         <v>996526550</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I245" s="2" t="s">
         <v>16</v>
@@ -11137,13 +11122,13 @@
         <v>20784</v>
       </c>
       <c r="K245" s="2">
-        <v>38.93947184</v>
+        <v>38.9393932</v>
       </c>
       <c r="L245" s="2">
-        <v>-76.90632224</v>
+        <v>-76.9057815</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="246" ht="28.25">
@@ -11163,13 +11148,13 @@
         <v>996526550</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>16</v>
@@ -11178,13 +11163,13 @@
         <v>20784</v>
       </c>
       <c r="K246" s="2">
-        <v>38.93947184</v>
+        <v>38.9393932</v>
       </c>
       <c r="L246" s="2">
-        <v>-76.90632224</v>
+        <v>-76.9057815</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="247" ht="28.25">
@@ -11204,13 +11189,13 @@
         <v>996526550</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I247" s="2" t="s">
         <v>16</v>
@@ -11219,13 +11204,13 @@
         <v>20784</v>
       </c>
       <c r="K247" s="2">
-        <v>38.93947184</v>
+        <v>38.9393932</v>
       </c>
       <c r="L247" s="2">
-        <v>-76.90632224</v>
+        <v>-76.9057815</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="248" ht="28.25">
@@ -11245,10 +11230,10 @@
         <v>996539471</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>51</v>
@@ -11260,13 +11245,13 @@
         <v>20020</v>
       </c>
       <c r="K248" s="2">
-        <v>38.86566305</v>
+        <v>38.8659856</v>
       </c>
       <c r="L248" s="2">
-        <v>-76.98948895</v>
+        <v>-76.9897776</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="249" ht="28.25">
@@ -11286,13 +11271,13 @@
         <v>993719001</v>
       </c>
       <c r="F249" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G249" s="2" t="s">
+      <c r="H249" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H249" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>16</v>
@@ -11301,13 +11286,13 @@
         <v>20743</v>
       </c>
       <c r="K249" s="2">
-        <v>38.89669781</v>
+        <v>38.897186</v>
       </c>
       <c r="L249" s="2">
-        <v>-76.91418421</v>
+        <v>-76.9144584</v>
       </c>
       <c r="M249" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" ht="41.65">
@@ -11327,13 +11312,13 @@
         <v>996605561</v>
       </c>
       <c r="F250" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G250" s="2" t="s">
+      <c r="H250" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H250" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>16</v>
@@ -11342,13 +11327,13 @@
         <v>20744</v>
       </c>
       <c r="K250" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L250" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M250" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="251" ht="28.25">
@@ -11383,10 +11368,10 @@
         <v>20754</v>
       </c>
       <c r="K251" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L251" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M251" s="5" t="s">
         <v>40</v>
@@ -11424,10 +11409,10 @@
         <v>20707</v>
       </c>
       <c r="K252" s="2">
-        <v>39.08785665</v>
+        <v>39.0888912</v>
       </c>
       <c r="L252" s="2">
-        <v>-76.86115123</v>
+        <v>-76.8600599</v>
       </c>
       <c r="M252" s="5" t="s">
         <v>48</v>
@@ -11465,10 +11450,10 @@
         <v>20706</v>
       </c>
       <c r="K253" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L253" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M253" s="5" t="s">
         <v>29</v>
@@ -11491,13 +11476,13 @@
         <v>996490715</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>16</v>
@@ -11506,13 +11491,13 @@
         <v>21401</v>
       </c>
       <c r="K254" s="2">
-        <v>38.99416697</v>
+        <v>38.9949853</v>
       </c>
       <c r="L254" s="2">
-        <v>-76.53741535</v>
+        <v>-76.5375628</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="255" ht="28.25">
@@ -11547,10 +11532,10 @@
         <v>20002</v>
       </c>
       <c r="K255" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L255" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M255" s="5" t="s">
         <v>53</v>
@@ -11588,10 +11573,10 @@
         <v>20754</v>
       </c>
       <c r="K256" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L256" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M256" s="5" t="s">
         <v>40</v>
@@ -11629,10 +11614,10 @@
         <v>20770</v>
       </c>
       <c r="K257" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L257" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M257" s="5" t="s">
         <v>17</v>
@@ -11670,10 +11655,10 @@
         <v>20754</v>
       </c>
       <c r="K258" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L258" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M258" s="5" t="s">
         <v>40</v>
@@ -11696,10 +11681,10 @@
         <v>996701795</v>
       </c>
       <c r="F259" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>60</v>
@@ -11711,13 +11696,13 @@
         <v>20910</v>
       </c>
       <c r="K259" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L259" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="260" ht="28.25">
@@ -11737,13 +11722,13 @@
         <v>994842782</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I260" s="2" t="s">
         <v>16</v>
@@ -11752,13 +11737,13 @@
         <v>20743</v>
       </c>
       <c r="K260" s="2">
-        <v>38.89669781</v>
+        <v>38.897186</v>
       </c>
       <c r="L260" s="2">
-        <v>-76.91418421</v>
+        <v>-76.9144584</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="261" ht="28.25">
@@ -11778,10 +11763,10 @@
         <v>996539471</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>51</v>
@@ -11793,13 +11778,13 @@
         <v>20020</v>
       </c>
       <c r="K261" s="2">
-        <v>38.86566305</v>
+        <v>38.8659856</v>
       </c>
       <c r="L261" s="2">
-        <v>-76.98948895</v>
+        <v>-76.9897776</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="262" ht="28.25">
@@ -11830,17 +11815,17 @@
       <c r="I262" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J262" s="2" t="s">
+      <c r="J262" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K262" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L262" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M262" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K262" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L262" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M262" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="263" ht="28.25">
@@ -11875,10 +11860,10 @@
         <v>20910</v>
       </c>
       <c r="K263" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L263" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M263" s="5" t="s">
         <v>53</v>
@@ -11901,10 +11886,10 @@
         <v>996275967</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>56</v>
@@ -11916,13 +11901,13 @@
         <v>21202</v>
       </c>
       <c r="K264" s="2">
-        <v>39.31000099</v>
+        <v>39.3101247</v>
       </c>
       <c r="L264" s="2">
-        <v>-76.61334748</v>
+        <v>-76.6124966</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="265" ht="28.25">
@@ -11942,13 +11927,13 @@
         <v>996605668</v>
       </c>
       <c r="F265" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G265" s="2" t="s">
+      <c r="H265" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="H265" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="I265" s="2" t="s">
         <v>16</v>
@@ -11957,13 +11942,13 @@
         <v>20747</v>
       </c>
       <c r="K265" s="2">
-        <v>38.85432061</v>
+        <v>38.8542535</v>
       </c>
       <c r="L265" s="2">
-        <v>-76.90787045</v>
+        <v>-76.9090469</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" ht="28.25">
@@ -11983,10 +11968,10 @@
         <v>996701795</v>
       </c>
       <c r="F266" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G266" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>60</v>
@@ -11998,13 +11983,13 @@
         <v>20910</v>
       </c>
       <c r="K266" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L266" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267" ht="14.8">
@@ -12024,13 +12009,13 @@
         <v>993724575</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I267" s="2" t="s">
         <v>16</v>
@@ -12039,13 +12024,13 @@
         <v>21093</v>
       </c>
       <c r="K267" s="2">
-        <v>39.452904</v>
+        <v>39.4529542</v>
       </c>
       <c r="L267" s="2">
-        <v>-76.638546</v>
+        <v>-76.6384284</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="268" ht="28.25">
@@ -12065,10 +12050,10 @@
         <v>996701795</v>
       </c>
       <c r="F268" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>60</v>
@@ -12080,13 +12065,13 @@
         <v>20910</v>
       </c>
       <c r="K268" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L268" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="269" ht="28.25">
@@ -12121,10 +12106,10 @@
         <v>20706</v>
       </c>
       <c r="K269" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L269" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M269" s="5" t="s">
         <v>29</v>
@@ -12162,10 +12147,10 @@
         <v>20002</v>
       </c>
       <c r="K270" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L270" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M270" s="5" t="s">
         <v>53</v>
@@ -12188,13 +12173,13 @@
         <v>996700633</v>
       </c>
       <c r="F271" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G271" s="2" t="s">
+      <c r="H271" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I271" s="2" t="s">
         <v>16</v>
@@ -12203,13 +12188,13 @@
         <v>20785</v>
       </c>
       <c r="K271" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L271" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="272" ht="28.25">
@@ -12229,10 +12214,10 @@
         <v>996701795</v>
       </c>
       <c r="F272" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G272" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>60</v>
@@ -12244,13 +12229,13 @@
         <v>20910</v>
       </c>
       <c r="K272" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L272" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="273" ht="41.65">
@@ -12270,13 +12255,13 @@
         <v>996605561</v>
       </c>
       <c r="F273" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G273" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G273" s="2" t="s">
+      <c r="H273" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H273" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I273" s="2" t="s">
         <v>16</v>
@@ -12285,13 +12270,13 @@
         <v>20744</v>
       </c>
       <c r="K273" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L273" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="274" ht="28.25">
@@ -12326,10 +12311,10 @@
         <v>20706</v>
       </c>
       <c r="K274" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L274" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M274" s="5" t="s">
         <v>29</v>
@@ -12352,10 +12337,10 @@
         <v>993878578</v>
       </c>
       <c r="F275" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G275" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>56</v>
@@ -12363,14 +12348,14 @@
       <c r="I275" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>114</v>
+      <c r="J275" s="2">
+        <v>21215</v>
       </c>
       <c r="K275" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L275" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M275" s="5" t="s">
         <v>53</v>
@@ -12393,13 +12378,13 @@
         <v>996605561</v>
       </c>
       <c r="F276" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G276" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G276" s="2" t="s">
+      <c r="H276" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H276" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I276" s="2" t="s">
         <v>16</v>
@@ -12408,13 +12393,13 @@
         <v>20744</v>
       </c>
       <c r="K276" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L276" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="277" ht="28.25">
@@ -12434,10 +12419,10 @@
         <v>996701795</v>
       </c>
       <c r="F277" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>60</v>
@@ -12449,13 +12434,13 @@
         <v>20910</v>
       </c>
       <c r="K277" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L277" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M277" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="278" ht="28.25">
@@ -12490,10 +12475,10 @@
         <v>20754</v>
       </c>
       <c r="K278" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L278" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M278" s="5" t="s">
         <v>40</v>
@@ -12531,10 +12516,10 @@
         <v>20770</v>
       </c>
       <c r="K279" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L279" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M279" s="5" t="s">
         <v>17</v>
@@ -12572,10 +12557,10 @@
         <v>20754</v>
       </c>
       <c r="K280" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L280" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M280" s="5" t="s">
         <v>40</v>
@@ -12613,10 +12598,10 @@
         <v>20754</v>
       </c>
       <c r="K281" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L281" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M281" s="5" t="s">
         <v>40</v>
@@ -12654,10 +12639,10 @@
         <v>20002</v>
       </c>
       <c r="K282" s="2">
-        <v>38.89483651</v>
+        <v>38.8992312</v>
       </c>
       <c r="L282" s="2">
-        <v>-76.99503533</v>
+        <v>-76.9799316</v>
       </c>
       <c r="M282" s="5" t="s">
         <v>53</v>
@@ -12680,10 +12665,10 @@
         <v>993878578</v>
       </c>
       <c r="F283" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>56</v>
@@ -12691,14 +12676,14 @@
       <c r="I283" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>114</v>
+      <c r="J283" s="2">
+        <v>21215</v>
       </c>
       <c r="K283" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L283" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M283" s="5" t="s">
         <v>53</v>
@@ -12732,17 +12717,17 @@
       <c r="I284" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J284" s="2" t="s">
+      <c r="J284" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K284" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L284" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M284" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K284" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L284" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M284" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="285" ht="28.25">
@@ -12762,10 +12747,10 @@
         <v>993878578</v>
       </c>
       <c r="F285" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G285" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H285" s="2" t="s">
         <v>56</v>
@@ -12773,14 +12758,14 @@
       <c r="I285" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>114</v>
+      <c r="J285" s="2">
+        <v>21215</v>
       </c>
       <c r="K285" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L285" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M285" s="5" t="s">
         <v>53</v>
@@ -12803,10 +12788,10 @@
         <v>996701834</v>
       </c>
       <c r="F286" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G286" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>56</v>
@@ -12818,13 +12803,13 @@
         <v>21236</v>
       </c>
       <c r="K286" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L286" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M286" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" ht="28.25">
@@ -12844,13 +12829,13 @@
         <v>993714301</v>
       </c>
       <c r="F287" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H287" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H287" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="I287" s="2" t="s">
         <v>16</v>
@@ -12859,13 +12844,13 @@
         <v>20902</v>
       </c>
       <c r="K287" s="2">
-        <v>39.03964765</v>
+        <v>39.039328</v>
       </c>
       <c r="L287" s="2">
-        <v>-77.05581684</v>
+        <v>-77.055738</v>
       </c>
       <c r="M287" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="288" ht="28.25">
@@ -12885,13 +12870,13 @@
         <v>996605665</v>
       </c>
       <c r="F288" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G288" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G288" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H288" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>16</v>
@@ -12900,13 +12885,13 @@
         <v>20716</v>
       </c>
       <c r="K288" s="2">
-        <v>38.9475207</v>
-      </c>
-      <c r="L288" s="2">
-        <v>-76.73721677</v>
+        <v>38.9780343</v>
+      </c>
+      <c r="L288" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M288" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" ht="28.25">
@@ -12941,10 +12926,10 @@
         <v>20770</v>
       </c>
       <c r="K289" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L289" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M289" s="5" t="s">
         <v>17</v>
@@ -12982,10 +12967,10 @@
         <v>20706</v>
       </c>
       <c r="K290" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L290" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M290" s="5" t="s">
         <v>29</v>
@@ -13008,10 +12993,10 @@
         <v>996701834</v>
       </c>
       <c r="F291" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G291" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G291" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>56</v>
@@ -13023,13 +13008,13 @@
         <v>21236</v>
       </c>
       <c r="K291" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L291" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M291" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="292" ht="28.25">
@@ -13064,10 +13049,10 @@
         <v>20707</v>
       </c>
       <c r="K292" s="2">
-        <v>39.08785665</v>
+        <v>39.0888912</v>
       </c>
       <c r="L292" s="2">
-        <v>-76.86115123</v>
+        <v>-76.8600599</v>
       </c>
       <c r="M292" s="5" t="s">
         <v>48</v>
@@ -13105,10 +13090,10 @@
         <v>20707</v>
       </c>
       <c r="K293" s="2">
-        <v>39.107547</v>
+        <v>39.1081154</v>
       </c>
       <c r="L293" s="2">
-        <v>-76.851389</v>
+        <v>-76.8512114</v>
       </c>
       <c r="M293" s="5" t="s">
         <v>67</v>
@@ -13131,10 +13116,10 @@
         <v>996701795</v>
       </c>
       <c r="F294" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G294" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>60</v>
@@ -13146,13 +13131,13 @@
         <v>20910</v>
       </c>
       <c r="K294" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L294" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M294" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295" ht="28.25">
@@ -13187,10 +13172,10 @@
         <v>20770</v>
       </c>
       <c r="K295" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L295" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M295" s="5" t="s">
         <v>17</v>
@@ -13224,17 +13209,17 @@
       <c r="I296" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J296" s="2" t="s">
+      <c r="J296" s="2">
+        <v>20770</v>
+      </c>
+      <c r="K296" s="2">
+        <v>38.993186</v>
+      </c>
+      <c r="L296" s="2">
+        <v>-76.8738076</v>
+      </c>
+      <c r="M296" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K296" s="2">
-        <v>38.99403317</v>
-      </c>
-      <c r="L296" s="2">
-        <v>-76.87477676</v>
-      </c>
-      <c r="M296" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="297" ht="28.25">
@@ -13269,10 +13254,10 @@
         <v>20754</v>
       </c>
       <c r="K297" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L297" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M297" s="5" t="s">
         <v>40</v>
@@ -13295,10 +13280,10 @@
         <v>993878578</v>
       </c>
       <c r="F298" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>56</v>
@@ -13306,14 +13291,14 @@
       <c r="I298" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>114</v>
+      <c r="J298" s="2">
+        <v>21215</v>
       </c>
       <c r="K298" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L298" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M298" s="5" t="s">
         <v>53</v>
@@ -13336,10 +13321,10 @@
         <v>993878578</v>
       </c>
       <c r="F299" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G299" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>56</v>
@@ -13347,14 +13332,14 @@
       <c r="I299" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>114</v>
+      <c r="J299" s="2">
+        <v>21215</v>
       </c>
       <c r="K299" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L299" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M299" s="5" t="s">
         <v>53</v>
@@ -13377,13 +13362,13 @@
         <v>996613952</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I300" s="2" t="s">
         <v>16</v>
@@ -13392,13 +13377,13 @@
         <v>20746</v>
       </c>
       <c r="K300" s="2">
-        <v>38.808202</v>
+        <v>38.8083376</v>
       </c>
       <c r="L300" s="2">
-        <v>-76.899446</v>
+        <v>-76.899163</v>
       </c>
       <c r="M300" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="301" ht="28.25">
@@ -13418,10 +13403,10 @@
         <v>996701795</v>
       </c>
       <c r="F301" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>60</v>
@@ -13433,13 +13418,13 @@
         <v>20910</v>
       </c>
       <c r="K301" s="2">
-        <v>38.99793724</v>
+        <v>38.9977236</v>
       </c>
       <c r="L301" s="2">
-        <v>-77.02311328</v>
+        <v>-77.0230266</v>
       </c>
       <c r="M301" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="302" ht="14.8">
@@ -13459,10 +13444,10 @@
         <v>996275967</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H302" s="2" t="s">
         <v>56</v>
@@ -13474,13 +13459,13 @@
         <v>21202</v>
       </c>
       <c r="K302" s="2">
-        <v>39.31000099</v>
+        <v>39.3101247</v>
       </c>
       <c r="L302" s="2">
-        <v>-76.61334748</v>
+        <v>-76.6124966</v>
       </c>
       <c r="M302" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="303" ht="28.25">
@@ -13500,10 +13485,10 @@
         <v>993878578</v>
       </c>
       <c r="F303" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H303" s="2" t="s">
         <v>56</v>
@@ -13511,14 +13496,14 @@
       <c r="I303" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>114</v>
+      <c r="J303" s="2">
+        <v>21215</v>
       </c>
       <c r="K303" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L303" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M303" s="5" t="s">
         <v>53</v>
@@ -13556,10 +13541,10 @@
         <v>20602</v>
       </c>
       <c r="K304" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L304" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M304" s="5" t="s">
         <v>25</v>
@@ -13597,10 +13582,10 @@
         <v>20602</v>
       </c>
       <c r="K305" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L305" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M305" s="5" t="s">
         <v>25</v>
@@ -13638,10 +13623,10 @@
         <v>20706</v>
       </c>
       <c r="K306" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L306" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M306" s="5" t="s">
         <v>29</v>
@@ -13679,10 +13664,10 @@
         <v>20602</v>
       </c>
       <c r="K307" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L307" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M307" s="5" t="s">
         <v>25</v>
@@ -13720,10 +13705,10 @@
         <v>20602</v>
       </c>
       <c r="K308" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L308" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M308" s="5" t="s">
         <v>25</v>
@@ -13746,10 +13731,10 @@
         <v>993878578</v>
       </c>
       <c r="F309" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H309" s="2" t="s">
         <v>56</v>
@@ -13757,14 +13742,14 @@
       <c r="I309" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>114</v>
+      <c r="J309" s="2">
+        <v>21215</v>
       </c>
       <c r="K309" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L309" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M309" s="5" t="s">
         <v>53</v>
@@ -13802,10 +13787,10 @@
         <v>20602</v>
       </c>
       <c r="K310" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L310" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M310" s="5" t="s">
         <v>25</v>
@@ -13828,13 +13813,13 @@
         <v>996593018</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I311" s="2" t="s">
         <v>16</v>
@@ -13843,13 +13828,13 @@
         <v>21108</v>
       </c>
       <c r="K311" s="2">
-        <v>39.09446379</v>
+        <v>39.0950291</v>
       </c>
       <c r="L311" s="2">
-        <v>-76.63183795</v>
+        <v>-76.632886</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="312" ht="28.25">
@@ -13869,28 +13854,28 @@
         <v>996595773</v>
       </c>
       <c r="F312" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J312" s="2">
+        <v>20850</v>
+      </c>
+      <c r="K312" s="2">
+        <v>39.1018062</v>
+      </c>
+      <c r="L312" s="2">
+        <v>-77.190541</v>
+      </c>
+      <c r="M312" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I312" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J312" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K312" s="2">
-        <v>39.10094904</v>
-      </c>
-      <c r="L312" s="2">
-        <v>-77.19163827</v>
-      </c>
-      <c r="M312" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="313" ht="28.25">
@@ -13910,28 +13895,28 @@
         <v>996595773</v>
       </c>
       <c r="F313" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I313" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J313" s="2">
+        <v>20850</v>
+      </c>
+      <c r="K313" s="2">
+        <v>39.1018062</v>
+      </c>
+      <c r="L313" s="2">
+        <v>-77.190541</v>
+      </c>
+      <c r="M313" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H313" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I313" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J313" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K313" s="2">
-        <v>39.10094904</v>
-      </c>
-      <c r="L313" s="2">
-        <v>-77.19163827</v>
-      </c>
-      <c r="M313" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="314" ht="28.25">
@@ -13951,28 +13936,28 @@
         <v>996595773</v>
       </c>
       <c r="F314" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J314" s="2">
+        <v>20850</v>
+      </c>
+      <c r="K314" s="2">
+        <v>39.1018062</v>
+      </c>
+      <c r="L314" s="2">
+        <v>-77.190541</v>
+      </c>
+      <c r="M314" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I314" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J314" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K314" s="2">
-        <v>39.10094904</v>
-      </c>
-      <c r="L314" s="2">
-        <v>-77.19163827</v>
-      </c>
-      <c r="M314" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="315" ht="28.25">
@@ -13992,13 +13977,13 @@
         <v>996374028</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I315" s="2" t="s">
         <v>16</v>
@@ -14007,13 +13992,13 @@
         <v>20747</v>
       </c>
       <c r="K315" s="2">
-        <v>38.85252717</v>
+        <v>38.8530111</v>
       </c>
       <c r="L315" s="2">
-        <v>-76.9132692</v>
+        <v>-76.9132992</v>
       </c>
       <c r="M315" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="316" ht="28.25">
@@ -14048,10 +14033,10 @@
         <v>20910</v>
       </c>
       <c r="K316" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L316" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M316" s="5" t="s">
         <v>53</v>
@@ -14089,10 +14074,10 @@
         <v>20754</v>
       </c>
       <c r="K317" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L317" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M317" s="5" t="s">
         <v>40</v>
@@ -14115,13 +14100,13 @@
         <v>996605561</v>
       </c>
       <c r="F318" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G318" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G318" s="2" t="s">
+      <c r="H318" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H318" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I318" s="2" t="s">
         <v>16</v>
@@ -14130,13 +14115,13 @@
         <v>20744</v>
       </c>
       <c r="K318" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L318" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M318" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="319" ht="28.25">
@@ -14171,10 +14156,10 @@
         <v>20754</v>
       </c>
       <c r="K319" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L319" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M319" s="5" t="s">
         <v>40</v>
@@ -14212,10 +14197,10 @@
         <v>20770</v>
       </c>
       <c r="K320" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L320" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M320" s="5" t="s">
         <v>17</v>
@@ -14253,10 +14238,10 @@
         <v>20910</v>
       </c>
       <c r="K321" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L321" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M321" s="5" t="s">
         <v>53</v>
@@ -14279,13 +14264,13 @@
         <v>996613409</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I322" s="2" t="s">
         <v>16</v>
@@ -14294,13 +14279,13 @@
         <v>21108</v>
       </c>
       <c r="K322" s="2">
-        <v>39.11756455</v>
+        <v>39.1171504</v>
       </c>
       <c r="L322" s="2">
-        <v>-76.63265847</v>
+        <v>-76.6316142</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="323" ht="28.25">
@@ -14320,10 +14305,10 @@
         <v>996701834</v>
       </c>
       <c r="F323" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G323" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>56</v>
@@ -14335,13 +14320,13 @@
         <v>21236</v>
       </c>
       <c r="K323" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L323" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M323" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="324" ht="28.25">
@@ -14376,10 +14361,10 @@
         <v>20910</v>
       </c>
       <c r="K324" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L324" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M324" s="5" t="s">
         <v>53</v>
@@ -14417,10 +14402,10 @@
         <v>20910</v>
       </c>
       <c r="K325" s="2">
-        <v>38.99097485</v>
+        <v>38.9910958</v>
       </c>
       <c r="L325" s="2">
-        <v>-77.02653851</v>
+        <v>-77.0260856</v>
       </c>
       <c r="M325" s="5" t="s">
         <v>53</v>
@@ -14443,13 +14428,13 @@
         <v>996613409</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I326" s="2" t="s">
         <v>16</v>
@@ -14458,13 +14443,13 @@
         <v>21108</v>
       </c>
       <c r="K326" s="2">
-        <v>39.11756455</v>
+        <v>39.1171504</v>
       </c>
       <c r="L326" s="2">
-        <v>-76.63265847</v>
+        <v>-76.6316142</v>
       </c>
       <c r="M326" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="327" ht="28.25">
@@ -14499,10 +14484,10 @@
         <v>20706</v>
       </c>
       <c r="K327" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L327" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M327" s="5" t="s">
         <v>29</v>
@@ -14540,10 +14525,10 @@
         <v>20706</v>
       </c>
       <c r="K328" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L328" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M328" s="5" t="s">
         <v>29</v>
@@ -14566,10 +14551,10 @@
         <v>993878578</v>
       </c>
       <c r="F329" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G329" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>56</v>
@@ -14577,14 +14562,14 @@
       <c r="I329" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>114</v>
+      <c r="J329" s="2">
+        <v>21215</v>
       </c>
       <c r="K329" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L329" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M329" s="5" t="s">
         <v>53</v>
@@ -14607,10 +14592,10 @@
         <v>993878578</v>
       </c>
       <c r="F330" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H330" s="2" t="s">
         <v>56</v>
@@ -14618,14 +14603,14 @@
       <c r="I330" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>114</v>
+      <c r="J330" s="2">
+        <v>21215</v>
       </c>
       <c r="K330" s="2">
-        <v>39.35742474</v>
+        <v>39.3576683</v>
       </c>
       <c r="L330" s="2">
-        <v>-76.70395141</v>
+        <v>-76.7040112</v>
       </c>
       <c r="M330" s="5" t="s">
         <v>53</v>
@@ -14648,13 +14633,13 @@
         <v>993719001</v>
       </c>
       <c r="F331" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G331" s="2" t="s">
+      <c r="H331" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H331" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="I331" s="2" t="s">
         <v>16</v>
@@ -14663,13 +14648,13 @@
         <v>20743</v>
       </c>
       <c r="K331" s="2">
-        <v>38.89669781</v>
+        <v>38.897186</v>
       </c>
       <c r="L331" s="2">
-        <v>-76.91418421</v>
+        <v>-76.9144584</v>
       </c>
       <c r="M331" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="332" ht="28.25">
@@ -14704,10 +14689,10 @@
         <v>20754</v>
       </c>
       <c r="K332" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L332" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M332" s="5" t="s">
         <v>40</v>
@@ -14730,13 +14715,13 @@
         <v>996700633</v>
       </c>
       <c r="F333" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G333" s="2" t="s">
+      <c r="H333" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I333" s="2" t="s">
         <v>16</v>
@@ -14745,13 +14730,13 @@
         <v>20785</v>
       </c>
       <c r="K333" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L333" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M333" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" ht="28.25">
@@ -14771,13 +14756,13 @@
         <v>996605665</v>
       </c>
       <c r="F334" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G334" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H334" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I334" s="2" t="s">
         <v>16</v>
@@ -14786,13 +14771,13 @@
         <v>20716</v>
       </c>
       <c r="K334" s="2">
-        <v>38.9475207</v>
-      </c>
-      <c r="L334" s="2">
-        <v>-76.73721677</v>
+        <v>38.9780343</v>
+      </c>
+      <c r="L334" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M334" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="335" ht="28.25">
@@ -14827,10 +14812,10 @@
         <v>20754</v>
       </c>
       <c r="K335" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L335" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M335" s="5" t="s">
         <v>40</v>
@@ -14868,10 +14853,10 @@
         <v>20602</v>
       </c>
       <c r="K336" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L336" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M336" s="5" t="s">
         <v>25</v>
@@ -14909,10 +14894,10 @@
         <v>20602</v>
       </c>
       <c r="K337" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L337" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M337" s="5" t="s">
         <v>25</v>
@@ -14935,10 +14920,10 @@
         <v>996701816</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>47</v>
@@ -14950,13 +14935,13 @@
         <v>20707</v>
       </c>
       <c r="K338" s="2">
-        <v>39.07677069</v>
+        <v>39.078022</v>
       </c>
       <c r="L338" s="2">
-        <v>-76.86743331</v>
+        <v>-76.8655014</v>
       </c>
       <c r="M338" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="339" ht="28.25">
@@ -14976,13 +14961,13 @@
         <v>994842782</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>16</v>
@@ -14991,13 +14976,13 @@
         <v>20743</v>
       </c>
       <c r="K339" s="2">
-        <v>38.89669781</v>
+        <v>38.897186</v>
       </c>
       <c r="L339" s="2">
-        <v>-76.91418421</v>
+        <v>-76.9144584</v>
       </c>
       <c r="M339" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="340" ht="28.25">
@@ -15032,10 +15017,10 @@
         <v>20754</v>
       </c>
       <c r="K340" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L340" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M340" s="5" t="s">
         <v>40</v>
@@ -15073,10 +15058,10 @@
         <v>20754</v>
       </c>
       <c r="K341" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L341" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M341" s="5" t="s">
         <v>40</v>
@@ -15114,10 +15099,10 @@
         <v>20706</v>
       </c>
       <c r="K342" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L342" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M342" s="5" t="s">
         <v>29</v>
@@ -15155,10 +15140,10 @@
         <v>20602</v>
       </c>
       <c r="K343" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L343" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M343" s="5" t="s">
         <v>25</v>
@@ -15196,10 +15181,10 @@
         <v>20754</v>
       </c>
       <c r="K344" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L344" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M344" s="5" t="s">
         <v>40</v>
@@ -15237,10 +15222,10 @@
         <v>20602</v>
       </c>
       <c r="K345" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L345" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M345" s="5" t="s">
         <v>25</v>
@@ -15278,10 +15263,10 @@
         <v>20706</v>
       </c>
       <c r="K346" s="2">
-        <v>38.96208316</v>
+        <v>38.9622009</v>
       </c>
       <c r="L346" s="2">
-        <v>-76.88465383</v>
+        <v>-76.8844143</v>
       </c>
       <c r="M346" s="5" t="s">
         <v>29</v>
@@ -15304,10 +15289,10 @@
         <v>996701834</v>
       </c>
       <c r="F347" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G347" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>56</v>
@@ -15319,13 +15304,13 @@
         <v>21236</v>
       </c>
       <c r="K347" s="2">
-        <v>39.37083808</v>
+        <v>39.3514892</v>
       </c>
       <c r="L347" s="2">
-        <v>-76.46829127</v>
+        <v>-76.3753046</v>
       </c>
       <c r="M347" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="348" ht="28.25">
@@ -15360,10 +15345,10 @@
         <v>20602</v>
       </c>
       <c r="K348" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L348" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M348" s="5" t="s">
         <v>25</v>
@@ -15386,13 +15371,13 @@
         <v>996668361</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>16</v>
@@ -15401,13 +15386,13 @@
         <v>20748</v>
       </c>
       <c r="K349" s="2">
-        <v>38.84463377</v>
+        <v>38.8421897</v>
       </c>
       <c r="L349" s="2">
-        <v>-76.95073882</v>
+        <v>-76.9491359</v>
       </c>
       <c r="M349" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="350" ht="28.25">
@@ -15442,10 +15427,10 @@
         <v>20602</v>
       </c>
       <c r="K350" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L350" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M350" s="5" t="s">
         <v>25</v>
@@ -15468,10 +15453,10 @@
         <v>996701816</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H351" s="2" t="s">
         <v>47</v>
@@ -15483,13 +15468,13 @@
         <v>20707</v>
       </c>
       <c r="K351" s="2">
-        <v>39.07677069</v>
+        <v>39.078022</v>
       </c>
       <c r="L351" s="2">
-        <v>-76.86743331</v>
+        <v>-76.8655014</v>
       </c>
       <c r="M351" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="352" ht="41.65">
@@ -15509,13 +15494,13 @@
         <v>996605561</v>
       </c>
       <c r="F352" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G352" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G352" s="2" t="s">
+      <c r="H352" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H352" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I352" s="2" t="s">
         <v>16</v>
@@ -15524,13 +15509,13 @@
         <v>20744</v>
       </c>
       <c r="K352" s="2">
-        <v>38.76402978</v>
+        <v>38.7621043</v>
       </c>
       <c r="L352" s="2">
-        <v>-76.99524572</v>
+        <v>-76.9944334</v>
       </c>
       <c r="M352" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="353" ht="14.8">
@@ -15550,10 +15535,10 @@
         <v>996275967</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H353" s="2" t="s">
         <v>56</v>
@@ -15565,16 +15550,16 @@
         <v>21202</v>
       </c>
       <c r="K353" s="2">
-        <v>39.31000099</v>
+        <v>39.3101247</v>
       </c>
       <c r="L353" s="2">
-        <v>-76.61334748</v>
+        <v>-76.6124966</v>
       </c>
       <c r="M353" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="354" ht="14.8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="354" ht="28.25">
       <c r="A354" s="2">
         <v>992306637</v>
       </c>
@@ -15591,28 +15576,28 @@
         <v>996675194</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J354" s="2">
         <v>22302</v>
       </c>
       <c r="K354" s="2">
-        <v>38.82709948</v>
+        <v>38.8276993</v>
       </c>
       <c r="L354" s="2">
-        <v>-77.08939724</v>
+        <v>-77.0904177</v>
       </c>
       <c r="M354" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="355" ht="28.25">
@@ -15632,10 +15617,10 @@
         <v>996701816</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>47</v>
@@ -15647,13 +15632,13 @@
         <v>20707</v>
       </c>
       <c r="K355" s="2">
-        <v>39.07677069</v>
+        <v>39.078022</v>
       </c>
       <c r="L355" s="2">
-        <v>-76.86743331</v>
+        <v>-76.8655014</v>
       </c>
       <c r="M355" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="356" ht="28.25">
@@ -15688,10 +15673,10 @@
         <v>20754</v>
       </c>
       <c r="K356" s="2">
-        <v>38.714689</v>
+        <v>38.7144468</v>
       </c>
       <c r="L356" s="2">
-        <v>-76.659379</v>
+        <v>-76.6592636</v>
       </c>
       <c r="M356" s="5" t="s">
         <v>40</v>
@@ -15714,10 +15699,10 @@
         <v>996701816</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>47</v>
@@ -15729,13 +15714,13 @@
         <v>20707</v>
       </c>
       <c r="K357" s="2">
-        <v>39.07677069</v>
+        <v>39.078022</v>
       </c>
       <c r="L357" s="2">
-        <v>-76.86743331</v>
+        <v>-76.8655014</v>
       </c>
       <c r="M357" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="358" ht="28.25">
@@ -15755,13 +15740,13 @@
         <v>996576449</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I358" s="2" t="s">
         <v>16</v>
@@ -15770,13 +15755,13 @@
         <v>20746</v>
       </c>
       <c r="K358" s="2">
-        <v>38.8066807</v>
+        <v>38.8084033</v>
       </c>
       <c r="L358" s="2">
-        <v>-76.90276012</v>
+        <v>-76.9008204</v>
       </c>
       <c r="M358" s="5" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="359" ht="28.25">
@@ -15796,13 +15781,13 @@
         <v>996576449</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>16</v>
@@ -15811,13 +15796,13 @@
         <v>20746</v>
       </c>
       <c r="K359" s="2">
-        <v>38.8066807</v>
+        <v>38.8084033</v>
       </c>
       <c r="L359" s="2">
-        <v>-76.90276012</v>
+        <v>-76.9008204</v>
       </c>
       <c r="M359" s="5" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="360" ht="28.25">
@@ -15852,10 +15837,10 @@
         <v>20602</v>
       </c>
       <c r="K360" s="2">
-        <v>38.616638</v>
+        <v>38.6166633</v>
       </c>
       <c r="L360" s="2">
-        <v>-76.890698</v>
+        <v>-76.890752</v>
       </c>
       <c r="M360" s="5" t="s">
         <v>25</v>
@@ -15893,10 +15878,10 @@
         <v>20770</v>
       </c>
       <c r="K361" s="2">
-        <v>38.992915</v>
+        <v>38.9926893</v>
       </c>
       <c r="L361" s="2">
-        <v>-76.875826</v>
+        <v>-76.8756316</v>
       </c>
       <c r="M361" s="5" t="s">
         <v>17</v>
@@ -15919,13 +15904,13 @@
         <v>996613409</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I362" s="2" t="s">
         <v>16</v>
@@ -15934,13 +15919,13 @@
         <v>21108</v>
       </c>
       <c r="K362" s="2">
-        <v>39.11756455</v>
+        <v>39.1171504</v>
       </c>
       <c r="L362" s="2">
-        <v>-76.63265847</v>
+        <v>-76.6316142</v>
       </c>
       <c r="M362" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="363" ht="28.25">
@@ -15960,13 +15945,13 @@
         <v>996700633</v>
       </c>
       <c r="F363" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G363" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G363" s="2" t="s">
+      <c r="H363" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H363" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>16</v>
@@ -15975,13 +15960,13 @@
         <v>20785</v>
       </c>
       <c r="K363" s="2">
-        <v>38.94825675</v>
+        <v>38.9487838</v>
       </c>
       <c r="L363" s="2">
-        <v>-76.86893857</v>
+        <v>-76.8670964</v>
       </c>
       <c r="M363" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -16011,183 +15996,183 @@
     <hyperlink ref="M342" r:id="rId13"/>
     <hyperlink ref="M341" r:id="rId7"/>
     <hyperlink ref="M340" r:id="rId7"/>
-    <hyperlink ref="M339" r:id="rId14"/>
+    <hyperlink ref="M339" r:id="rId5"/>
     <hyperlink ref="M338" r:id="rId6"/>
     <hyperlink ref="M337" r:id="rId4"/>
     <hyperlink ref="M336" r:id="rId4"/>
     <hyperlink ref="M335" r:id="rId7"/>
-    <hyperlink ref="M334" r:id="rId15"/>
+    <hyperlink ref="M334" r:id="rId14"/>
     <hyperlink ref="M333" r:id="rId2"/>
     <hyperlink ref="M332" r:id="rId7"/>
-    <hyperlink ref="M331" r:id="rId16"/>
-    <hyperlink ref="M330" r:id="rId17"/>
-    <hyperlink ref="M329" r:id="rId17"/>
+    <hyperlink ref="M331" r:id="rId15"/>
+    <hyperlink ref="M330" r:id="rId16"/>
+    <hyperlink ref="M329" r:id="rId16"/>
     <hyperlink ref="M328" r:id="rId13"/>
     <hyperlink ref="M327" r:id="rId13"/>
     <hyperlink ref="M326" r:id="rId3"/>
-    <hyperlink ref="M325" r:id="rId17"/>
-    <hyperlink ref="M324" r:id="rId17"/>
+    <hyperlink ref="M325" r:id="rId16"/>
+    <hyperlink ref="M324" r:id="rId16"/>
     <hyperlink ref="M323" r:id="rId12"/>
     <hyperlink ref="M322" r:id="rId3"/>
-    <hyperlink ref="M321" r:id="rId17"/>
+    <hyperlink ref="M321" r:id="rId16"/>
     <hyperlink ref="M320" r:id="rId1"/>
     <hyperlink ref="M319" r:id="rId7"/>
     <hyperlink ref="M318" r:id="rId10"/>
     <hyperlink ref="M317" r:id="rId7"/>
-    <hyperlink ref="M316" r:id="rId17"/>
-    <hyperlink ref="M315" r:id="rId18"/>
-    <hyperlink ref="M314" r:id="rId19"/>
-    <hyperlink ref="M313" r:id="rId19"/>
-    <hyperlink ref="M312" r:id="rId19"/>
-    <hyperlink ref="M311" r:id="rId20"/>
+    <hyperlink ref="M316" r:id="rId16"/>
+    <hyperlink ref="M315" r:id="rId17"/>
+    <hyperlink ref="M314" r:id="rId18"/>
+    <hyperlink ref="M313" r:id="rId18"/>
+    <hyperlink ref="M312" r:id="rId18"/>
+    <hyperlink ref="M311" r:id="rId19"/>
     <hyperlink ref="M310" r:id="rId4"/>
-    <hyperlink ref="M309" r:id="rId17"/>
+    <hyperlink ref="M309" r:id="rId16"/>
     <hyperlink ref="M308" r:id="rId4"/>
     <hyperlink ref="M307" r:id="rId4"/>
     <hyperlink ref="M306" r:id="rId13"/>
     <hyperlink ref="M305" r:id="rId4"/>
     <hyperlink ref="M304" r:id="rId4"/>
-    <hyperlink ref="M303" r:id="rId17"/>
+    <hyperlink ref="M303" r:id="rId16"/>
     <hyperlink ref="M302" r:id="rId9"/>
-    <hyperlink ref="M301" r:id="rId21"/>
-    <hyperlink ref="M300" r:id="rId22"/>
-    <hyperlink ref="M299" r:id="rId17"/>
-    <hyperlink ref="M298" r:id="rId17"/>
+    <hyperlink ref="M301" r:id="rId20"/>
+    <hyperlink ref="M300" r:id="rId21"/>
+    <hyperlink ref="M299" r:id="rId16"/>
+    <hyperlink ref="M298" r:id="rId16"/>
     <hyperlink ref="M297" r:id="rId7"/>
-    <hyperlink ref="M296" r:id="rId23"/>
+    <hyperlink ref="M296" r:id="rId22"/>
     <hyperlink ref="M295" r:id="rId1"/>
-    <hyperlink ref="M294" r:id="rId21"/>
-    <hyperlink ref="M293" r:id="rId24"/>
-    <hyperlink ref="M292" r:id="rId25"/>
+    <hyperlink ref="M294" r:id="rId20"/>
+    <hyperlink ref="M293" r:id="rId23"/>
+    <hyperlink ref="M292" r:id="rId24"/>
     <hyperlink ref="M291" r:id="rId12"/>
     <hyperlink ref="M290" r:id="rId13"/>
     <hyperlink ref="M289" r:id="rId1"/>
-    <hyperlink ref="M288" r:id="rId15"/>
-    <hyperlink ref="M287" r:id="rId26"/>
+    <hyperlink ref="M288" r:id="rId14"/>
+    <hyperlink ref="M287" r:id="rId25"/>
     <hyperlink ref="M286" r:id="rId12"/>
-    <hyperlink ref="M285" r:id="rId17"/>
-    <hyperlink ref="M284" r:id="rId23"/>
-    <hyperlink ref="M283" r:id="rId17"/>
-    <hyperlink ref="M282" r:id="rId17"/>
+    <hyperlink ref="M285" r:id="rId16"/>
+    <hyperlink ref="M284" r:id="rId22"/>
+    <hyperlink ref="M283" r:id="rId16"/>
+    <hyperlink ref="M282" r:id="rId16"/>
     <hyperlink ref="M281" r:id="rId7"/>
     <hyperlink ref="M280" r:id="rId7"/>
     <hyperlink ref="M279" r:id="rId1"/>
     <hyperlink ref="M278" r:id="rId7"/>
-    <hyperlink ref="M277" r:id="rId21"/>
+    <hyperlink ref="M277" r:id="rId20"/>
     <hyperlink ref="M276" r:id="rId10"/>
-    <hyperlink ref="M275" r:id="rId17"/>
+    <hyperlink ref="M275" r:id="rId16"/>
     <hyperlink ref="M274" r:id="rId13"/>
     <hyperlink ref="M273" r:id="rId10"/>
-    <hyperlink ref="M272" r:id="rId21"/>
+    <hyperlink ref="M272" r:id="rId20"/>
     <hyperlink ref="M271" r:id="rId2"/>
-    <hyperlink ref="M270" r:id="rId17"/>
+    <hyperlink ref="M270" r:id="rId16"/>
     <hyperlink ref="M269" r:id="rId13"/>
-    <hyperlink ref="M268" r:id="rId21"/>
-    <hyperlink ref="M267" r:id="rId27"/>
-    <hyperlink ref="M266" r:id="rId21"/>
-    <hyperlink ref="M265" r:id="rId28"/>
+    <hyperlink ref="M268" r:id="rId20"/>
+    <hyperlink ref="M267" r:id="rId26"/>
+    <hyperlink ref="M266" r:id="rId20"/>
+    <hyperlink ref="M265" r:id="rId27"/>
     <hyperlink ref="M264" r:id="rId9"/>
-    <hyperlink ref="M263" r:id="rId17"/>
-    <hyperlink ref="M262" r:id="rId23"/>
-    <hyperlink ref="M261" r:id="rId29"/>
-    <hyperlink ref="M260" r:id="rId14"/>
-    <hyperlink ref="M259" r:id="rId21"/>
+    <hyperlink ref="M263" r:id="rId16"/>
+    <hyperlink ref="M262" r:id="rId22"/>
+    <hyperlink ref="M261" r:id="rId28"/>
+    <hyperlink ref="M260" r:id="rId5"/>
+    <hyperlink ref="M259" r:id="rId20"/>
     <hyperlink ref="M258" r:id="rId7"/>
     <hyperlink ref="M257" r:id="rId1"/>
     <hyperlink ref="M256" r:id="rId7"/>
-    <hyperlink ref="M255" r:id="rId17"/>
-    <hyperlink ref="M254" r:id="rId30"/>
+    <hyperlink ref="M255" r:id="rId16"/>
+    <hyperlink ref="M254" r:id="rId29"/>
     <hyperlink ref="M253" r:id="rId13"/>
-    <hyperlink ref="M252" r:id="rId25"/>
+    <hyperlink ref="M252" r:id="rId24"/>
     <hyperlink ref="M251" r:id="rId7"/>
     <hyperlink ref="M250" r:id="rId10"/>
-    <hyperlink ref="M249" r:id="rId16"/>
-    <hyperlink ref="M248" r:id="rId29"/>
-    <hyperlink ref="M247" r:id="rId31"/>
-    <hyperlink ref="M246" r:id="rId31"/>
-    <hyperlink ref="M245" r:id="rId31"/>
-    <hyperlink ref="M244" r:id="rId32"/>
-    <hyperlink ref="M243" r:id="rId21"/>
-    <hyperlink ref="M242" r:id="rId24"/>
+    <hyperlink ref="M249" r:id="rId15"/>
+    <hyperlink ref="M248" r:id="rId28"/>
+    <hyperlink ref="M247" r:id="rId30"/>
+    <hyperlink ref="M246" r:id="rId30"/>
+    <hyperlink ref="M245" r:id="rId30"/>
+    <hyperlink ref="M244" r:id="rId31"/>
+    <hyperlink ref="M243" r:id="rId20"/>
+    <hyperlink ref="M242" r:id="rId23"/>
     <hyperlink ref="M241" r:id="rId12"/>
-    <hyperlink ref="M240" r:id="rId33"/>
-    <hyperlink ref="M239" r:id="rId34"/>
+    <hyperlink ref="M240" r:id="rId32"/>
+    <hyperlink ref="M239" r:id="rId33"/>
     <hyperlink ref="M238" r:id="rId7"/>
     <hyperlink ref="M237" r:id="rId13"/>
-    <hyperlink ref="M236" r:id="rId21"/>
-    <hyperlink ref="M235" r:id="rId35"/>
+    <hyperlink ref="M236" r:id="rId20"/>
+    <hyperlink ref="M235" r:id="rId34"/>
     <hyperlink ref="M234" r:id="rId1"/>
-    <hyperlink ref="M233" r:id="rId17"/>
-    <hyperlink ref="M232" r:id="rId26"/>
-    <hyperlink ref="M231" r:id="rId23"/>
-    <hyperlink ref="M230" r:id="rId26"/>
+    <hyperlink ref="M233" r:id="rId16"/>
+    <hyperlink ref="M232" r:id="rId25"/>
+    <hyperlink ref="M231" r:id="rId22"/>
+    <hyperlink ref="M230" r:id="rId25"/>
     <hyperlink ref="M229" r:id="rId4"/>
-    <hyperlink ref="M228" r:id="rId36"/>
-    <hyperlink ref="M227" r:id="rId37"/>
+    <hyperlink ref="M228" r:id="rId35"/>
+    <hyperlink ref="M227" r:id="rId36"/>
     <hyperlink ref="M226" r:id="rId12"/>
-    <hyperlink ref="M225" r:id="rId38"/>
+    <hyperlink ref="M225" r:id="rId37"/>
     <hyperlink ref="M224" r:id="rId9"/>
-    <hyperlink ref="M223" r:id="rId24"/>
-    <hyperlink ref="M222" r:id="rId24"/>
-    <hyperlink ref="M221" r:id="rId26"/>
-    <hyperlink ref="M220" r:id="rId23"/>
+    <hyperlink ref="M223" r:id="rId23"/>
+    <hyperlink ref="M222" r:id="rId23"/>
+    <hyperlink ref="M221" r:id="rId25"/>
+    <hyperlink ref="M220" r:id="rId22"/>
     <hyperlink ref="M219" r:id="rId13"/>
-    <hyperlink ref="M218" r:id="rId21"/>
+    <hyperlink ref="M218" r:id="rId20"/>
     <hyperlink ref="M217" r:id="rId7"/>
     <hyperlink ref="M216" r:id="rId2"/>
     <hyperlink ref="M215" r:id="rId12"/>
-    <hyperlink ref="M214" r:id="rId17"/>
-    <hyperlink ref="M213" r:id="rId17"/>
+    <hyperlink ref="M214" r:id="rId16"/>
+    <hyperlink ref="M213" r:id="rId16"/>
     <hyperlink ref="M212" r:id="rId13"/>
-    <hyperlink ref="M211" r:id="rId24"/>
-    <hyperlink ref="M210" r:id="rId24"/>
-    <hyperlink ref="M209" r:id="rId23"/>
-    <hyperlink ref="M208" r:id="rId23"/>
-    <hyperlink ref="M207" r:id="rId23"/>
-    <hyperlink ref="M206" r:id="rId24"/>
+    <hyperlink ref="M211" r:id="rId23"/>
+    <hyperlink ref="M210" r:id="rId23"/>
+    <hyperlink ref="M209" r:id="rId22"/>
+    <hyperlink ref="M208" r:id="rId22"/>
+    <hyperlink ref="M207" r:id="rId22"/>
+    <hyperlink ref="M206" r:id="rId23"/>
     <hyperlink ref="M205" r:id="rId10"/>
-    <hyperlink ref="M204" r:id="rId17"/>
-    <hyperlink ref="M203" r:id="rId17"/>
+    <hyperlink ref="M204" r:id="rId16"/>
+    <hyperlink ref="M203" r:id="rId16"/>
     <hyperlink ref="M202" r:id="rId9"/>
     <hyperlink ref="M201" r:id="rId1"/>
-    <hyperlink ref="M200" r:id="rId24"/>
-    <hyperlink ref="M199" r:id="rId24"/>
+    <hyperlink ref="M200" r:id="rId23"/>
+    <hyperlink ref="M199" r:id="rId23"/>
     <hyperlink ref="M198" r:id="rId13"/>
     <hyperlink ref="M197" r:id="rId4"/>
-    <hyperlink ref="M196" r:id="rId17"/>
-    <hyperlink ref="M195" r:id="rId35"/>
+    <hyperlink ref="M196" r:id="rId16"/>
+    <hyperlink ref="M195" r:id="rId34"/>
     <hyperlink ref="M194" r:id="rId1"/>
     <hyperlink ref="M193" r:id="rId1"/>
     <hyperlink ref="M192" r:id="rId13"/>
-    <hyperlink ref="M191" r:id="rId39"/>
-    <hyperlink ref="M190" r:id="rId40"/>
+    <hyperlink ref="M191" r:id="rId38"/>
+    <hyperlink ref="M190" r:id="rId39"/>
     <hyperlink ref="M189" r:id="rId10"/>
     <hyperlink ref="M188" r:id="rId10"/>
-    <hyperlink ref="M187" r:id="rId35"/>
-    <hyperlink ref="M186" r:id="rId39"/>
-    <hyperlink ref="M185" r:id="rId21"/>
-    <hyperlink ref="M184" r:id="rId21"/>
-    <hyperlink ref="M183" r:id="rId23"/>
+    <hyperlink ref="M187" r:id="rId34"/>
+    <hyperlink ref="M186" r:id="rId38"/>
+    <hyperlink ref="M185" r:id="rId20"/>
+    <hyperlink ref="M184" r:id="rId20"/>
+    <hyperlink ref="M183" r:id="rId22"/>
     <hyperlink ref="M182" r:id="rId12"/>
-    <hyperlink ref="M181" r:id="rId15"/>
-    <hyperlink ref="M180" r:id="rId17"/>
-    <hyperlink ref="M179" r:id="rId41"/>
+    <hyperlink ref="M181" r:id="rId14"/>
+    <hyperlink ref="M180" r:id="rId16"/>
+    <hyperlink ref="M179" r:id="rId40"/>
     <hyperlink ref="M178" r:id="rId1"/>
     <hyperlink ref="M177" r:id="rId7"/>
     <hyperlink ref="M176" r:id="rId4"/>
-    <hyperlink ref="M175" r:id="rId17"/>
-    <hyperlink ref="M174" r:id="rId17"/>
+    <hyperlink ref="M175" r:id="rId16"/>
+    <hyperlink ref="M174" r:id="rId16"/>
     <hyperlink ref="M173" r:id="rId10"/>
-    <hyperlink ref="M172" r:id="rId17"/>
-    <hyperlink ref="M171" r:id="rId21"/>
-    <hyperlink ref="M170" r:id="rId23"/>
-    <hyperlink ref="M169" r:id="rId42"/>
+    <hyperlink ref="M172" r:id="rId16"/>
+    <hyperlink ref="M171" r:id="rId20"/>
+    <hyperlink ref="M170" r:id="rId22"/>
+    <hyperlink ref="M169" r:id="rId41"/>
     <hyperlink ref="M168" r:id="rId10"/>
-    <hyperlink ref="M167" r:id="rId43"/>
-    <hyperlink ref="M166" r:id="rId17"/>
+    <hyperlink ref="M167" r:id="rId42"/>
+    <hyperlink ref="M166" r:id="rId16"/>
     <hyperlink ref="M165" r:id="rId4"/>
-    <hyperlink ref="M164" r:id="rId15"/>
-    <hyperlink ref="M163" r:id="rId37"/>
+    <hyperlink ref="M164" r:id="rId14"/>
+    <hyperlink ref="M163" r:id="rId36"/>
     <hyperlink ref="M162" r:id="rId1"/>
     <hyperlink ref="M161" r:id="rId4"/>
     <hyperlink ref="M160" r:id="rId7"/>
@@ -16196,46 +16181,46 @@
     <hyperlink ref="M157" r:id="rId1"/>
     <hyperlink ref="M156" r:id="rId1"/>
     <hyperlink ref="M155" r:id="rId1"/>
-    <hyperlink ref="M154" r:id="rId24"/>
+    <hyperlink ref="M154" r:id="rId23"/>
     <hyperlink ref="M153" r:id="rId2"/>
     <hyperlink ref="M152" r:id="rId2"/>
     <hyperlink ref="M151" r:id="rId2"/>
-    <hyperlink ref="M150" r:id="rId44"/>
+    <hyperlink ref="M150" r:id="rId43"/>
     <hyperlink ref="M149" r:id="rId4"/>
-    <hyperlink ref="M148" r:id="rId21"/>
+    <hyperlink ref="M148" r:id="rId20"/>
     <hyperlink ref="M147" r:id="rId9"/>
     <hyperlink ref="M146" r:id="rId7"/>
-    <hyperlink ref="M145" r:id="rId45"/>
-    <hyperlink ref="M144" r:id="rId17"/>
-    <hyperlink ref="M143" r:id="rId37"/>
+    <hyperlink ref="M145" r:id="rId44"/>
+    <hyperlink ref="M144" r:id="rId16"/>
+    <hyperlink ref="M143" r:id="rId36"/>
     <hyperlink ref="M142" r:id="rId10"/>
-    <hyperlink ref="M141" r:id="rId37"/>
+    <hyperlink ref="M141" r:id="rId36"/>
     <hyperlink ref="M140" r:id="rId13"/>
     <hyperlink ref="M139" r:id="rId12"/>
-    <hyperlink ref="M138" r:id="rId45"/>
+    <hyperlink ref="M138" r:id="rId44"/>
     <hyperlink ref="M137" r:id="rId4"/>
-    <hyperlink ref="M136" r:id="rId22"/>
-    <hyperlink ref="M135" r:id="rId46"/>
+    <hyperlink ref="M136" r:id="rId21"/>
+    <hyperlink ref="M135" r:id="rId45"/>
     <hyperlink ref="M134" r:id="rId7"/>
     <hyperlink ref="M133" r:id="rId1"/>
     <hyperlink ref="M132" r:id="rId4"/>
-    <hyperlink ref="M131" r:id="rId22"/>
-    <hyperlink ref="M130" r:id="rId47"/>
+    <hyperlink ref="M131" r:id="rId21"/>
+    <hyperlink ref="M130" r:id="rId46"/>
     <hyperlink ref="M129" r:id="rId2"/>
-    <hyperlink ref="M128" r:id="rId48"/>
+    <hyperlink ref="M128" r:id="rId47"/>
     <hyperlink ref="M127" r:id="rId9"/>
-    <hyperlink ref="M126" r:id="rId15"/>
+    <hyperlink ref="M126" r:id="rId14"/>
     <hyperlink ref="M125" r:id="rId9"/>
     <hyperlink ref="M124" r:id="rId13"/>
     <hyperlink ref="M123" r:id="rId10"/>
     <hyperlink ref="M122" r:id="rId13"/>
     <hyperlink ref="M121" r:id="rId2"/>
-    <hyperlink ref="M120" r:id="rId16"/>
+    <hyperlink ref="M120" r:id="rId15"/>
     <hyperlink ref="M119" r:id="rId13"/>
-    <hyperlink ref="M118" r:id="rId49"/>
-    <hyperlink ref="M117" r:id="rId23"/>
-    <hyperlink ref="M116" r:id="rId23"/>
-    <hyperlink ref="M115" r:id="rId23"/>
+    <hyperlink ref="M118" r:id="rId48"/>
+    <hyperlink ref="M117" r:id="rId22"/>
+    <hyperlink ref="M116" r:id="rId22"/>
+    <hyperlink ref="M115" r:id="rId22"/>
     <hyperlink ref="M114" r:id="rId13"/>
     <hyperlink ref="M113" r:id="rId12"/>
     <hyperlink ref="M112" r:id="rId4"/>
@@ -16243,51 +16228,51 @@
     <hyperlink ref="M110" r:id="rId1"/>
     <hyperlink ref="M109" r:id="rId2"/>
     <hyperlink ref="M108" r:id="rId1"/>
-    <hyperlink ref="M107" r:id="rId35"/>
+    <hyperlink ref="M107" r:id="rId34"/>
     <hyperlink ref="M106" r:id="rId1"/>
     <hyperlink ref="M105" r:id="rId4"/>
     <hyperlink ref="M104" r:id="rId2"/>
     <hyperlink ref="M103" r:id="rId2"/>
     <hyperlink ref="M102" r:id="rId2"/>
-    <hyperlink ref="M101" r:id="rId23"/>
+    <hyperlink ref="M101" r:id="rId22"/>
     <hyperlink ref="M100" r:id="rId7"/>
-    <hyperlink ref="M99" r:id="rId45"/>
-    <hyperlink ref="M98" r:id="rId17"/>
+    <hyperlink ref="M99" r:id="rId44"/>
+    <hyperlink ref="M98" r:id="rId16"/>
     <hyperlink ref="M97" r:id="rId1"/>
     <hyperlink ref="M96" r:id="rId1"/>
     <hyperlink ref="M95" r:id="rId1"/>
-    <hyperlink ref="M94" r:id="rId17"/>
+    <hyperlink ref="M94" r:id="rId16"/>
     <hyperlink ref="M93" r:id="rId13"/>
     <hyperlink ref="M92" r:id="rId1"/>
-    <hyperlink ref="M91" r:id="rId21"/>
+    <hyperlink ref="M91" r:id="rId20"/>
     <hyperlink ref="M90" r:id="rId4"/>
     <hyperlink ref="M89" r:id="rId2"/>
-    <hyperlink ref="M88" r:id="rId23"/>
-    <hyperlink ref="M87" r:id="rId21"/>
-    <hyperlink ref="M86" r:id="rId25"/>
-    <hyperlink ref="M85" r:id="rId33"/>
-    <hyperlink ref="M84" r:id="rId16"/>
-    <hyperlink ref="M83" r:id="rId15"/>
-    <hyperlink ref="M82" r:id="rId50"/>
+    <hyperlink ref="M88" r:id="rId22"/>
+    <hyperlink ref="M87" r:id="rId20"/>
+    <hyperlink ref="M86" r:id="rId24"/>
+    <hyperlink ref="M85" r:id="rId32"/>
+    <hyperlink ref="M84" r:id="rId15"/>
+    <hyperlink ref="M83" r:id="rId14"/>
+    <hyperlink ref="M82" r:id="rId49"/>
     <hyperlink ref="M81" r:id="rId10"/>
-    <hyperlink ref="M80" r:id="rId23"/>
-    <hyperlink ref="M79" r:id="rId51"/>
-    <hyperlink ref="M78" r:id="rId17"/>
-    <hyperlink ref="M77" r:id="rId17"/>
-    <hyperlink ref="M76" r:id="rId23"/>
-    <hyperlink ref="M75" r:id="rId16"/>
-    <hyperlink ref="M74" r:id="rId17"/>
+    <hyperlink ref="M80" r:id="rId22"/>
+    <hyperlink ref="M79" r:id="rId50"/>
+    <hyperlink ref="M78" r:id="rId16"/>
+    <hyperlink ref="M77" r:id="rId16"/>
+    <hyperlink ref="M76" r:id="rId22"/>
+    <hyperlink ref="M75" r:id="rId15"/>
+    <hyperlink ref="M74" r:id="rId16"/>
     <hyperlink ref="M73" r:id="rId12"/>
-    <hyperlink ref="M72" r:id="rId17"/>
+    <hyperlink ref="M72" r:id="rId16"/>
     <hyperlink ref="M71" r:id="rId4"/>
-    <hyperlink ref="M70" r:id="rId28"/>
-    <hyperlink ref="M69" r:id="rId23"/>
+    <hyperlink ref="M70" r:id="rId27"/>
+    <hyperlink ref="M69" r:id="rId22"/>
     <hyperlink ref="M68" r:id="rId7"/>
-    <hyperlink ref="M67" r:id="rId25"/>
-    <hyperlink ref="M66" r:id="rId17"/>
+    <hyperlink ref="M67" r:id="rId24"/>
+    <hyperlink ref="M66" r:id="rId16"/>
     <hyperlink ref="M65" r:id="rId4"/>
     <hyperlink ref="M64" r:id="rId4"/>
-    <hyperlink ref="M63" r:id="rId17"/>
+    <hyperlink ref="M63" r:id="rId16"/>
     <hyperlink ref="M62" r:id="rId1"/>
     <hyperlink ref="M61" r:id="rId4"/>
     <hyperlink ref="M60" r:id="rId1"/>
@@ -16295,24 +16280,24 @@
     <hyperlink ref="M58" r:id="rId4"/>
     <hyperlink ref="M57" r:id="rId4"/>
     <hyperlink ref="M56" r:id="rId4"/>
-    <hyperlink ref="M55" r:id="rId24"/>
-    <hyperlink ref="M54" r:id="rId52"/>
-    <hyperlink ref="M53" r:id="rId17"/>
+    <hyperlink ref="M55" r:id="rId23"/>
+    <hyperlink ref="M54" r:id="rId51"/>
+    <hyperlink ref="M53" r:id="rId16"/>
     <hyperlink ref="M52" r:id="rId1"/>
     <hyperlink ref="M51" r:id="rId4"/>
     <hyperlink ref="M50" r:id="rId4"/>
-    <hyperlink ref="M49" r:id="rId48"/>
-    <hyperlink ref="M48" r:id="rId17"/>
+    <hyperlink ref="M49" r:id="rId47"/>
+    <hyperlink ref="M48" r:id="rId16"/>
     <hyperlink ref="M47" r:id="rId4"/>
     <hyperlink ref="M46" r:id="rId4"/>
     <hyperlink ref="M45" r:id="rId4"/>
-    <hyperlink ref="M44" r:id="rId17"/>
+    <hyperlink ref="M44" r:id="rId16"/>
     <hyperlink ref="M43" r:id="rId4"/>
     <hyperlink ref="M42" r:id="rId4"/>
     <hyperlink ref="M41" r:id="rId1"/>
-    <hyperlink ref="M40" r:id="rId25"/>
+    <hyperlink ref="M40" r:id="rId24"/>
     <hyperlink ref="M39" r:id="rId1"/>
-    <hyperlink ref="M38" r:id="rId53"/>
+    <hyperlink ref="M38" r:id="rId52"/>
     <hyperlink ref="M37" r:id="rId4"/>
     <hyperlink ref="M36" r:id="rId4"/>
     <hyperlink ref="M35" r:id="rId4"/>
@@ -16322,7 +16307,7 @@
     <hyperlink ref="M31" r:id="rId4"/>
     <hyperlink ref="M30" r:id="rId4"/>
     <hyperlink ref="M29" r:id="rId4"/>
-    <hyperlink ref="M28" r:id="rId51"/>
+    <hyperlink ref="M28" r:id="rId50"/>
     <hyperlink ref="M27" r:id="rId1"/>
     <hyperlink ref="M26" r:id="rId4"/>
     <hyperlink ref="M25" r:id="rId1"/>
@@ -16339,20 +16324,20 @@
     <hyperlink ref="M14" r:id="rId4"/>
     <hyperlink ref="M13" r:id="rId4"/>
     <hyperlink ref="M12" r:id="rId4"/>
-    <hyperlink ref="M11" r:id="rId35"/>
-    <hyperlink ref="M10" r:id="rId54"/>
+    <hyperlink ref="M11" r:id="rId34"/>
+    <hyperlink ref="M10" r:id="rId53"/>
     <hyperlink ref="M9" r:id="rId4"/>
     <hyperlink ref="M8" r:id="rId4"/>
     <hyperlink ref="M7" r:id="rId13"/>
     <hyperlink ref="M6" r:id="rId4"/>
     <hyperlink ref="M5" r:id="rId1"/>
-    <hyperlink ref="M4" r:id="rId35"/>
-    <hyperlink ref="M3" r:id="rId35"/>
+    <hyperlink ref="M4" r:id="rId34"/>
+    <hyperlink ref="M3" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0">
-    <oddHeader>&amp;L&amp;CReferrals_App_Outbound - 8/26/2025&amp;R</oddHeader>
+    <oddHeader>&amp;L&amp;CReferrals_App_Outbound - 9/4/2025&amp;R</oddHeader>
     <oddFooter>&amp;L&amp;C&amp;R</oddFooter>
   </headerFooter>
 </worksheet>
